--- a/files/Sample.xlsx
+++ b/files/Sample.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="270">
   <si>
     <t>Corn Cheese Balls recipe, How to make cheese corn balls, Veg Cheese balls</t>
   </si>
@@ -1447,6 +1447,252 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/strawberry-rocket-leaves-salad-39374r</t>
+  </si>
+  <si>
+    <t>Pineapple Cucumber and Celery Salad ( Multi Vitamin Recipe)</t>
+  </si>
+  <si>
+    <t>2 1/2 cups unpeeled cucumber cubes
+1 cup chopped pineapple
+1 cup chopped spinach (palak)
+To Be Mixed Into A Curds-celery Dressing
+1/2 cup low-fat curds (dahi)
+1 tbsp chopped celery
+1 tsp lemon juice
+salt to taste
+1 tsp sugar</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients along with the curds-celery dressing in a deep bowl and toss well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 49 cal
+Protein 1.7 g
+Carbohydrates 9.8 g
+Fiber 3.7 g
+Fat 0.3 g
+Cholesterol 0 mg
+Sodium 47.2 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_pineapple_cucumber_and_celery_salad_(_vitamin_c_rich_recipe_)-8896.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/pineapple-cucumber-and-celery-salad--multi-vitamin-recipe-35088r</t>
+  </si>
+  <si>
+    <t>Lettuce, Orange and Spinach Salad recipe, Indian Diabetic Recipes</t>
+  </si>
+  <si>
+    <t>For The Salad
+2 cups iceberg lettuce , torn into pieces
+3/4 cup orange segments
+1 cup roughly chopped spinach (palak)
+1 cup bean sprouts
+1/2 cup chopped spring onions (whites and greens)
+To Be Mixed Into A Dressing
+1 tbsp lemon juice
+1 tsp olive oil
+salt and freshly ground black pepper (kalimirch) to taste</t>
+  </si>
+  <si>
+    <t>Combine all the salad ingredients in a deep bowl and mix well.
+Add the dressing and toss well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 41 cal
+Protein 1.7 g
+Carbohydrates 6 g
+Fiber 1.3 g
+Fat 1.3 g
+Cholesterol 0 mg
+Sodium 29.1 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_spring_salad-8802.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/lettuce-orange-and-spinach-salad-3462r</t>
+  </si>
+  <si>
+    <t>Fruit and Vegetable Salad with Apple Dressing recipe, Indian Diabetic Salad Recipes</t>
+  </si>
+  <si>
+    <t>1/2 cup papaya cubes
+1/2 cup cucumber cubes
+1/2 cup chopped spring onions (whites and greens)
+1 cup lettuce leaves , torn into small pieces
+1/2 cup capsicum cubes
+salt to taste
+To Be Blended Into A Smooth Apple Dressing
+3/4 cup apple cubes (unpeeled)
+1 tsp lemon juice</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients in a deep bowl.
+Just before serving, add the apple dressing and toss well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 42 cal
+Protein 1.3 g
+Carbohydrates 8.6 g
+Fiber 2.6 g
+Fat 0.4 g
+Cholesterol 0 mg
+Sodium 28.2 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_fruit_and_vegetable_salad_with_apple_dressing-8348.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/fruit-and-vegetable-salad-with-apple-dressing-7443r</t>
+  </si>
+  <si>
+    <t>Fruits in Mango Dressing recipe, Low Cholesterol Recipes</t>
+  </si>
+  <si>
+    <t>1/2 cup chopped mixed fruits
+3/4 cup lettuce leaves
+For The Dressing
+2 tbsp mango pulp
+1 tbsp fresh low fat curds (dahi)
+1 tbsp low fat milk
+salt to taste
+For The Garnish
+4 tbsp pomegranate seeds (anardana)
+1 tbsp chopped walnuts (akhrot)</t>
+  </si>
+  <si>
+    <t>For the dressing
+Whisk all the ingredients well.
+Store in the refrigerator and use within 12 hours as required.
+How to proceed
+Spread the lettuce leaves at the bottom of a large bowl and arrange a layer of mixed fruits over them. Refrigerate.
+Just before serving, pour the dressing on top and toss well.
+Serve immediately garnished with pomegranate and walnuts.</t>
+  </si>
+  <si>
+    <t>Energy 44 cal
+Protein 2.4 g
+Carbohydrates 8 g
+Fiber 0.8 g
+Fat 0.3 g
+Cholesterol 0.1 mg
+Sodium 41.7 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_fruits_in_mango_dressing-7322.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/fruits-in-mango-dressing-5277r</t>
+  </si>
+  <si>
+    <t>Jamun Raita recipe | heathy Indian Diabetic Recipe |</t>
+  </si>
+  <si>
+    <t>1/2 cup deseeded and finely chopped ripe black jamuns
+1 cup whisked low-fat curds
+salt to taste
+1/2 tsp roasted cumin seeds (jeera) powder
+1 tbsp finely chopped coriander (dhania)
+For The Garnish
+a sprig of coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Combine the curds, jamuns, salt, cumin seeds powder and coriander in a bowl and mix well.
+Refrigerate for at least 1 hour.
+Serve chilled garnished with a sprig of coriander.</t>
+  </si>
+  <si>
+    <t>Energy 44 cal
+Protein 2.6 g
+Carbohydrates 8.1 g
+Fiber 1.2 g
+Fat 0.2 g
+Cholesterol 0 mg
+Sodium 42.6 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_jamun_raita-9893.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/jamun-raita-3493r</t>
+  </si>
+  <si>
+    <t>Pear Spinach and Bean Sprouts Salad recipe, Low Cholesterol Foods</t>
+  </si>
+  <si>
+    <t>1 cup pear cubes (unpeeled)
+1 cup spinach (palak) , torn into pieces
+1 cup bean sprouts
+1/2 cup chopped carrot
+1/2 cup chopped capsicum
+To Be Mixed Together For The Dressing
+1/4 cup pear pulp
+1 tsp extra virgin olive oil
+1/4 tsp mustard (rai/sarson) powder
+1 tsp honey
+salt to taste</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients in a deep bowl and toss well.
+Add the dressing and toss well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 64 cal
+Protein 1.4 g
+Carbohydrates 11.6 g
+Fiber 3.9 g
+Fat 1.5 g
+Cholesterol 0 mg
+Sodium 16.1 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_pear_spinach_and_bean_sprouts_salad-12532.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/pear-spinach-and-bean-sprouts-salad-5563r</t>
+  </si>
+  <si>
+    <t>Sprouted Methi and Fruit Salad ( Eat Well Stay Well Recipes ) recipe</t>
+  </si>
+  <si>
+    <t>1/4 cup fenugreek sprouts
+1/2 cup apple cubes , with the skin
+1/2 cup orange segments
+1/4 cup pomegranate
+1/2 cup roughly chopped spinach (palak)
+salt to taste
+For The Fruity Dressing
+1/2 cup papaya cubes
+1/4 cup thick low fat curds , beaten</t>
+  </si>
+  <si>
+    <t>For the fruity dressing
+Blend all the ingredients together in a mixer till smooth.
+Refrigerate and use as required.
+How to proceed
+Combine all the salad ingredients together in a bowl. Refrigerate to chill.
+Just before serving, add the dressing and toss well. Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 37 cal
+Protein 1 g
+Carbohydrates 7.8 g
+Fiber 1.3 g
+Fat 0.2 g
+Cholesterol 0 mg
+Sodium 17.4 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_sprouted_methi_and_fruit_salad_(_eat_well_stay_well_recipes_)-5800.jpg?size=500X650</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/sprouted-methi-and-fruit-salad--eat-well-stay-well-recipes--33476r</t>
   </si>
 </sst>
 </file>
@@ -1483,8 +1729,155 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="302">
+  <cellXfs count="351">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
     </xf>
@@ -2449,7 +2842,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:G18"/>
+  <dimension ref="A2:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2810,6 +3203,153 @@
       </c>
       <c r="G18" t="s">
         <v>227</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" t="s">
+        <v>230</v>
+      </c>
+      <c r="E19" t="s">
+        <v>231</v>
+      </c>
+      <c r="F19" t="s">
+        <v>232</v>
+      </c>
+      <c r="G19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20" t="s">
+        <v>235</v>
+      </c>
+      <c r="D20" t="s">
+        <v>236</v>
+      </c>
+      <c r="E20" t="s">
+        <v>237</v>
+      </c>
+      <c r="F20" t="s">
+        <v>238</v>
+      </c>
+      <c r="G20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21" t="s">
+        <v>241</v>
+      </c>
+      <c r="D21" t="s">
+        <v>242</v>
+      </c>
+      <c r="E21" t="s">
+        <v>243</v>
+      </c>
+      <c r="F21" t="s">
+        <v>244</v>
+      </c>
+      <c r="G21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>246</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22" t="s">
+        <v>247</v>
+      </c>
+      <c r="D22" t="s">
+        <v>248</v>
+      </c>
+      <c r="E22" t="s">
+        <v>249</v>
+      </c>
+      <c r="F22" t="s">
+        <v>250</v>
+      </c>
+      <c r="G22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>252</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23" t="s">
+        <v>253</v>
+      </c>
+      <c r="D23" t="s">
+        <v>254</v>
+      </c>
+      <c r="E23" t="s">
+        <v>255</v>
+      </c>
+      <c r="F23" t="s">
+        <v>256</v>
+      </c>
+      <c r="G23" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>258</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24" t="s">
+        <v>259</v>
+      </c>
+      <c r="D24" t="s">
+        <v>260</v>
+      </c>
+      <c r="E24" t="s">
+        <v>261</v>
+      </c>
+      <c r="F24" t="s">
+        <v>262</v>
+      </c>
+      <c r="G24" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>264</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25" t="s">
+        <v>265</v>
+      </c>
+      <c r="D25" t="s">
+        <v>266</v>
+      </c>
+      <c r="E25" t="s">
+        <v>267</v>
+      </c>
+      <c r="F25" t="s">
+        <v>268</v>
+      </c>
+      <c r="G25" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/files/Sample.xlsx
+++ b/files/Sample.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="513">
   <si>
     <t>Corn Cheese Balls recipe, How to make cheese corn balls, Veg Cheese balls</t>
   </si>
@@ -1693,6 +1693,1656 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/sprouted-methi-and-fruit-salad--eat-well-stay-well-recipes--33476r</t>
+  </si>
+  <si>
+    <t>upma | rava upma | sooji upma | quick upma recipe | breakfast upma |</t>
+  </si>
+  <si>
+    <t>For Upma
+1 cup semolina (rava / sooji)
+1 1/2 tbsp oil
+1/2 tsp mustard seeds ( rai / sarson)
+1 tsp urad dal (split black lentils)
+4 curry leaves (kadi patta)
+2 slit green chillies
+1/4 cup finely chopped onions
+salt to taste
+2 tsp lemon juice
+2 tsp sugar
+For The Upma Garnish
+1 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>For upma
+To make upma, heat the semolina in a kadhai and dry roast on a mdium flame for 4 to 5 minutes, while stirring occasionally. Keep aside.
+Heat the oil in a kadhai and add the mustard seeds.
+When the seeds crackle, add the urad dal, curry leaves and green chillies and sauté on a medium flame for a few seconds.
+Add the onions and sauté on a medium flame for 1 to 2 minutes.
+Add the roasted semolina, 3 cups of hot water and salt and mix well and cover with a lid and cook on a slow flame for 3 to 4 minutes, while stirring occasionally.
+Add the lemon juice and sugar, mix well and cook on a medium flame for another 1 minute, while stirring continuously.
+Fill the upma in a glass bowl and demould on a plate.
+Serve the upma immediately garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Energy 192 cal
+Protein 4 g
+Carbohydrates 30.7 g
+Fiber 0.3 g
+Fat 5.8 g
+Cholesterol 0 mg
+Sodium 8.2 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_upma,__quick_upma_recipe,_breakfast_upma-14124.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/upma--quick-upma-recipe-breakfast-upma-38658r</t>
+  </si>
+  <si>
+    <t>Mullangi Sambar, South Indian Radish Sambhar recipe</t>
+  </si>
+  <si>
+    <t>1/2 cup toovar (arhar) dal
+1/2 tsp turmeric powder (haldi)
+1/2 tsp asafoetida (hing)
+2 tbsp oil
+1/2 cup roughly chopped onions
+1/2 cup roughly chopped tomatoes
+1 1/2 cups radish (mooli) slices
+2 tbsp tamarind (imli) water
+5 tsp sambhar masala
+1 tsp chilli powder
+salt to taste
+1/2 tsp mustard seeds ( rai / sarson)
+1 tsp urad dal (split black lentils)
+8 curry leaves (kadi patta)
+2 whole dry kashmiri red chillies , broken into pieces
+2 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Combine the dal, turmeric powder, asafoetida and 1 cup of water in a pressure cooker, mix well and pressure cook for 3 whistles.
+Allow the steam to escape before opening the lid.
+Whisk the dal well and keep aside.
+Heat 1 tbsp of oil in a deep non-stick pan, add the onions, tomatoes and radish and sauté on a medium flame for 3 minutes.
+Add ½ cup of water and mix well. Cover with a lid and cook on a medium flame for 6 minutes, while stirring occasionally.
+Add the whisked dal, tamarind water, chilli powder, salt and 2 cups of water, mix well and cook on a medium flame for 10 minutes, while stirring occasionally. Keep aside.
+Heat the remaining 1 tbsp of oil in a small non-stick pan, add the mustard seeds and urad dal and sauté on a medium flame for 1 minute.
+Add the curry leaves and kashmiri red chillies and sauté on a medium flame for a few seconds.
+Pour the tempering and coriander over the prepared sambar and mix well.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 166 cal
+Protein 5.6 g
+Carbohydrates 18.1 g
+Fiber 3.4 g
+Fat 8 g
+Cholesterol 0 mg
+Sodium 24.4 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_mullangi_sambar,_south_indian_radish_sambhar-13701.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/mullangi-sambar-south-indian-radish-sambhar-42456r</t>
+  </si>
+  <si>
+    <t>gobi 65 recipe | cauliflower 65 restaurant style | crispy gobi 65 dry | Indian veg starter |</t>
+  </si>
+  <si>
+    <t>For Gobi 65
+3 cups cauliflower florets
+1/2 cup plain flour (maida)
+1/4 cup cornflour
+1 1/2 tsp chilli powder
+1/2 tsp ginger (adrak) paste
+1/2 tsp garlic (lehsun) paste
+1 tbsp finely chopped coriander (dhania)
+1/2 tsp garam masala
+1/4 tsp turmeric powder (haldi)
+1/2 tsp coriander (dhania) powder
+1 tsp lemon juice
+salt to taste
+oil for deep-frying
+1 tbsp oil
+1 tsp finely chopped garlic (lehsun)
+1 tsp finely chopped ginger (adrak)
+2 slit green chillies
+6 curry leaves (kadi patta)
+1/2 cup sliced onions</t>
+  </si>
+  <si>
+    <t>For gobi 65
+To make gobi 65, combine the plain flour, cornflour, chilli powder, ginger paste, garlic paste, coriander, garam masala, turmeric powder, coriander powder, lemon juice and salt in a deep bowl and mix well.
+Add approx. ¾ cup of water and mix well.
+Add the cauliflower florets and mix gently.
+Heat the oil for deep-frying in a deep non-stick pan and deep-fry a few cauliflower florets at a time till they turn golden brown in colour from all the sides. Drain on an absorbent paper.
+Heat the oil in a broad non-stick pan, add the garlic, ginger, green chillies and curry leaves and sauté on a medium flame for 1 minute.
+Add the onions and little salt and sauté on a medium flame for 2 minutes.
+Add the deep-fried cauliflower and sauté on a medium flame for 2 minutes.
+Serve the gobi 65 immediately.</t>
+  </si>
+  <si>
+    <t>Energy 267 cal
+Protein 4.5 g
+Carbohydrates 24.2 g
+Fiber 3.4 g
+Fat 17.1 g
+Cholesterol 0 mg
+Sodium 32.4 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_gobi_65_recipe,_indian_cauliflower_fried_starter-15631.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/gobi-65-cauliflower-65-restaurant-style-42139r</t>
+  </si>
+  <si>
+    <t>Instant Oats and Whole Wheat Uttapam recipe</t>
+  </si>
+  <si>
+    <t>1/2 cup oats flour
+1/4 cup whole wheat flour (gehun ka atta)
+2 tbsp besan (bengal gram flour)
+2 tbsp semolina (rava / sooji)
+1 tsp lemon juice
+a pinch of baking soda
+salt to taste
+6 1/4 tsp oil for greasing and cooking
+To Be Mixed Into A Topping
+1/4 cup chopped onions
+1/4 cup chopped tomatoes
+1/4 cup chopped capsicum
+1 tsp finely chopped green chillies
+2 tbsp finely chopped coriander (dhania)
+salt to taste
+For Serving
+sambhar
+coconut chutney</t>
+  </si>
+  <si>
+    <t>Combine the oats flour, whole wheat flour, besan, semolina and ½ cup of water in a deep bowl, mix well using a whisk.
+Cover it with a lid and keep aside for 15 minutes.
+Add the lemon juice, baking soda, 5 tbsp of water and salt and mix well.
+Heat a non-stick tava (griddle), sprinkle a little water on it (it should sizzle immediately) and wipe off using a piece of cloth.
+Pour a ladleful of the batter on the tava (griddle), spread in a circular motion to make a 125 mm. (5") thick uttapa and cook on a medium flame for a minute.
+Sprinkle 1 tbsp of the prepared topping evenly over it and press it lightly using a flat ladle.
+Pour 1 tsp of oil on it and over the edges and cook on a medium flame for 2 minutes or till light brown in colour from both the sides.
+Repeat steps 4 to 7 to make 4 more uttapams.
+Serve immediately with sambhar and coconut chutney.</t>
+  </si>
+  <si>
+    <t>Energy 121 cal
+Protein 2.7 g
+Carbohydrates 12.5 g
+Fiber 1.4 g
+Fat 6.7 g
+Cholesterol 0 mg
+Sodium 8.4 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_instant_oats_and_whole_wheat_uttapam-13750.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/instant-oats-and-whole-wheat-uttapam-42495r</t>
+  </si>
+  <si>
+    <t>oats dosa recipe | oats dosa for weight loss |</t>
+  </si>
+  <si>
+    <t>For Healthy Oats Dosa
+1 cup quick cooking rolled oats
+5 tbsp urad dal (split black lentils)
+salt to taste
+5 tsp ghee for cooking
+For Serving With Healthy Oats Dosa
+sambhar</t>
+  </si>
+  <si>
+    <t>Combine the oats and urad dal in a mixer and blend to a smooth powder.
+Add 1½ cups of water and blend again till smooth.
+Transfer the mixture into a deep bowl, cover it with a lid and keep aside to ferment in a warm place for 10 to 12 hours.
+After fermentation, add the salt and mix the batter very well.
+Heat a non-stick tava (griddle), sprinkle a little water on the tava (griddle) and wipe it off gently using a cloth.
+Pour a ladleful of the batter on it and spread it in a circular motion to make a 175 mm. (7”) diameter thin circle.
+Smear 1 tsp of ghee over it and along the edges and cook on a high flame till the dosa turns brown in colour and crisp.
+Fold over to make a semi-circle or a roll.
+Repeat steps 5 to 8 to make 4 more dosas.
+Serve immediately with sambhar.</t>
+  </si>
+  <si>
+    <t>Energy 144 cal
+Protein 5.4 g
+Carbohydrates 17 g
+Fiber 3 g
+Fat 6.2 g
+Cholesterol 0 mg
+Sodium 4.8 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_healthy_oats_dosa-13780.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/healthy-oats-dosa-42521r</t>
+  </si>
+  <si>
+    <t>dal vada recipe | chana dal vada | South Indian dal vada | paruppu vadai</t>
+  </si>
+  <si>
+    <t>For Dal Vada
+1 cup chana dal (split bengal gram)
+1/2 cup chopped onions
+1/2 tsp ginger (adrak) paste
+2 tbsp chopped coriander (dhania)
+1 tbsp chopped curry leaves (kadi patta)
+2 tsp chilli powder
+1/2 tsp asafoetida (hing)
+1/4 tsp turmeric powder (haldi)
+salt to taste
+oil for deep-frying
+For Serving With Dal Vada
+green chutney</t>
+  </si>
+  <si>
+    <t>For dal vada
+To make dal vadas, clean, wash and soak the chana dal in a deep bowl in enough water for 2 hours. Drain well.
+Remove ¼ cup of soaked and drained chana dal in a bowl and keep aside.
+Blend the remaining chana dal in a mixer to a coarse mixture without using any water.
+Transfer the mixture into a deep bowl, add all the remaining ingredients, including the soaked and drained chana dal and mix well.
+Divide the mixture into 17 equal portions and shape each portion into 50 mm. (2”) diameter round flat vada.
+Heat the oil in a deep non-stick kadhai and deep-fry, a few dal vadas at a time on a medium flame, till they turn golden brown in colour from all the sides. Drain on an absorbent paper.
+Serve the dal vada immediately with green chutney.</t>
+  </si>
+  <si>
+    <t>Energy 91 cal
+Protein 2.1 g
+Carbohydrates 6.2 g
+Fiber 1.5 g
+Fat 6.4 g
+Cholesterol 0 mg
+Vitamin A 89.8 mcg
+Vitamin B1 0 mg
+Vitamin B2 0 mg
+Vitamin B3 0.2 mg
+Vitamin C 1 mg
+Folic Acid 14.5 mcg
+Calcium 7.9 mg
+Iron 0.5 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 7.4 mg
+Potassium 75.3 mg
+Zinc 0.2 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_dal_vada,_south_indian_chana_dal_vada,_masala_vada-15454.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/dal-vada-south-indian-chana-dal-vada-masala-vada-40197r</t>
+  </si>
+  <si>
+    <t>Bisi Bele Bhaat recipe, Karnataka Style Bisi Bele Bhaat</t>
+  </si>
+  <si>
+    <t>For The Masala (makes Approx. 1/4 Cup)
+1 tbsp coconut oil or any other refined oil
+1 tbsp chana dal (split Bengal gram)
+1 tbsp urad dal (split black lentils)
+12 mm ( 1/2”) piece cinnamon (dalchini) (optional)
+1/4 cup grated dry coconut
+5 whole dry Kashmiri red chillies , broken into pieces
+2 tbsp coriander (dhania) seeds
+Other Ingredients
+1/2 cup toovar (arhar) dal , soaked for an hour and drained.
+2 tsp coconut oil or any other refined oil
+1/2 tsp turmeric powder (haldi)
+salt to taste
+1 cup raw rice (chawal)
+1/4 cup finely chopped french beans
+1/4 cup finely chopped carrots
+1/2 cup finely chopped potatoes
+1/2 cup finely chopped capsicum
+1/4 cup shallots (madras onions)
+1 drumsticks (saijan ki phalli / saragavo) , cut into small pieces
+5 to 7 curry leaves (kadi patta)
+2 tbsp tamarind (imli) pulp
+1 tbsp ghee for serving</t>
+  </si>
+  <si>
+    <t>For the masala
+Heat the oil in a pan, add all the ingredients and sauté on a slow flame for 4 to 5 minutes or till they turn golden brown in colour, while stirring continuously.
+When cool, blend in a mixer to a fine powder. Keep aside.
+How to proceed
+Clean, wash and soak the rice for about 2 hours. Drain and keep aside.
+Combine the toovar dal, oil, turmeric powder, salt and 6 cups of water in a deep pan, mix well, cover and cook on a medium flame for 10 to 12 minutes.
+Add the rice, French beans, carrots, potatoes, capsicum, shallots and drumsticks, mix well and cover and cook on a medium flame for 10 to 12 minutes or till the rice and dal are cooked. (they should be soft and slightly over cooked)
+Add the prepared masala, curry leaves and tamarind pulp, mix gently and cover and cook on a slow flame for another 5 minutes. Add the ghee and serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 380 cal
+Protein 10 g
+Carbohydrates 57.6 g
+Fiber 5.8 g
+Fat 12.3 g
+Cholesterol 0 mg
+Vitamin A 267.4 mcg
+Vitamin B1 0.3 mg
+Vitamin B2 0.1 mg
+Vitamin B3 2 mg
+Vitamin C 31.2 mg
+Folic Acid 42.1 mcg
+Calcium 54.2 mg
+Iron 1.8 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 15.3 mg
+Potassium 387.9 mg
+Zinc 1.1 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_bisi-bele-bhaat-1736.jpg?size=500X662</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/bisi-bele-bhaat-32894r</t>
+  </si>
+  <si>
+    <t>sambar powder recipe | how to make South Indian sambar powder at home |</t>
+  </si>
+  <si>
+    <t>For South Indian Sambar Powder
+1 tsp oil
+1 tbsp chana dal (split bengal gram)
+1 tbsp toovar (arhar) dal
+1 tbsp urad dal (split black lentils)
+1 tsp fenugreek (methi) seeds
+4 tbsp coriander (dhania) seeds
+8 whole dry kashmiri red chillies
+1 tsp turmeric powder (haldi)
+1/4 tsp asafoetida (hing)
+15 to 20 curry leaves (kadi patta)</t>
+  </si>
+  <si>
+    <t>For south indian sambar powder
+To make south indian sambar powder, heat the oil in a broad non-stick pan, add all the ingredients and roast on a slow flame for 3 to 4 minutes or till the dals turn light brown in colour. Keep aside to cool completely.
+Once cooled, blend in a mixer to a fine powder.
+Use the sambar powder as required or store refrigerated in an air-tight container.</t>
+  </si>
+  <si>
+    <t>Energy 28 cal
+Protein 1.3 g
+Carbohydrates 3.5 g
+Fiber 0.7 g
+Fat 0.9 g
+Cholesterol 0 mg
+Sodium 2.9 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_sambhar_masala_(_basic_recipe)-11151.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/south-indian-sambar-powder-sambar-masala-powder-at-home-30828r</t>
+  </si>
+  <si>
+    <t>paper dosa recipe | crispy paper dosa | South Indian paper dosa |</t>
+  </si>
+  <si>
+    <t>For Crispy Paper Dosa
+1/2 cup raw rice (chawal)
+3/4 cup urad dal (split black lentils)
+1/2 cup rice flour (chawal ka atta)
+salt to taste
+ghee for greasing and cooking
+For Serving With Crispy Paper Dosa
+sambhar
+coconut chutney</t>
+  </si>
+  <si>
+    <t>For crispy paper dosa
+To make crispy paper dosa, wash and soak the raw rice and urad dal separately in enough water in deep bowls for 3 to 4 hours and drain well.
+Combine the rice, urad dal and rice flour and blend in a mixer to a smooth paste using approx. 1 ½ cups of water to get a batter of thick pouring consistency.
+Add the salt and mix well.
+Heat a non-stick tava (griddle) and grease it lightly using ghee.
+Sprinkle a little water on the tava (griddle) and wipe it off gently using a muslin cloth.
+Pour a ladleful of the batter on it and spread it in a circular motion to make a 225 mm. (9”) diameter thin circle.
+Smear a little ghee over it and along the edges and cook on a medium flame till the dosa turns golden brown in colour and crisp.
+Fold over to make a semi-circle or a roll.
+Repeat with the remaining batter to make 9 more crispy paper dosas.
+Serve the crispy paper dosa immediately with sambhar and coconut chutney.</t>
+  </si>
+  <si>
+    <t>Energy 152 cal
+Protein 4.7 g
+Carbohydrates 21.1 g
+Fiber 2.3 g
+Fat 5.4 g
+Cholesterol 0 mg
+Sodium 6.8 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_crispy_paper_dosa-15418.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/crispy-paper-dosa-1699r</t>
+  </si>
+  <si>
+    <t>Sambar Masala recipe, Sambar Powder, Sambar Podi</t>
+  </si>
+  <si>
+    <t>For Sambar Masala
+10 dry red chillies (pandi) , broken into pieces
+1 tsp chana dal (split bengal gram)
+1 tsp cumin seeds (jeera)
+1 tsp fenugreek (methi) seeds
+1 tsp black peppercorns (kalimirch)
+1/4 cup coriander (dhania) seeds</t>
+  </si>
+  <si>
+    <t>For sambar masala
+To make sambar masala, combine all the ingredients in a small non-stick pan and dry roast on a medium flame for 3 minutes, while stirring continuously.
+Transfer into a plate and allow the mixture to cool completely.
+Once cooled blend in a mixer to a smooth powder.
+Store the sambar masala in an air-tight container and use as required.</t>
+  </si>
+  <si>
+    <t>Energy 5 cal
+Protein 0.3 g
+Carbohydrates 0.7 g
+Fiber 0.2 g
+Fat 0.1 g
+Cholesterol 0 mg
+Sodium 0.6 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_sambar_masala_(_how_to_make_sambhar_masala)-15054.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/sambar-masala--how-to-make-sambhar-masala-1666r</t>
+  </si>
+  <si>
+    <t>How To Make A Perfect Dosa Batter recipe, Dosa Batter at Home</t>
+  </si>
+  <si>
+    <t>For Dosa Batter
+1/2 cup urad dal (split black lentils)
+1 tbsp fenugreek (methi) seeds
+1 cup raw rice (chawal)
+1 cup par-boiled rice (ukda chawal)
+2 tbsp thick beaten rice (jada poha)</t>
+  </si>
+  <si>
+    <t>For dosa batter
+To make the perfect dosa batter, wash and soak the urad dal, fenugreek seeds and enough water in a deep bowl and mix well. Cover with a lid and keep aside to soak for 4 hours.
+Wash and soak the par-boiled rice, raw rice, thick beaten rice and enough water in a deep bowl and mix well. Cover with a lid and keep aside to soak for 4 hours.
+Drain the urad dal and fenugreek seeds and blend in a mixer to a smooth paste using approx. 1 cup of water. Transfer the mixture into a deep bowl and keep aside.
+Drain the par-boiled rice, raw rice, and thick beaten rice and blend in a mixer to a smooth paste using approx. 1 cup of water. Transfer the mixture into the same bowl of the urad dal batter, add the salt and mix well.
+Cover with a lid and keep aside to ferment in a warm place for 12 hours.
+Once fermented, mix it very well.
+Use the dosa batter immediately to make dosas or store the batter in an air-tight container and refrigerate. It will stay fresh for at least 1 week.</t>
+  </si>
+  <si>
+    <t>Energy 263 cal
+Protein 8.1 g
+Carbohydrates 56.5 g
+Fiber 3.2 g
+Fat 0.5 g
+Cholesterol 0 mg
+Sodium 9.9 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_how_to_make_a_perfect_dosa_batter-15884.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/how-to-make-a-perfect-dosa-batter-40481r</t>
+  </si>
+  <si>
+    <t>moong dal dosa recipe | moong dosa | green moong dal dosa |</t>
+  </si>
+  <si>
+    <t>For Moong Dal Dosa
+1 cup green moong dal (split green gram)
+1 cup parboiled rice (ukda chawal)
+salt to taste
+oil for cooking
+For Serving With Moong Dal Dosa
+sambhar
+coconut chutney</t>
+  </si>
+  <si>
+    <t>For moong dal dosa
+To make moong dal dosa, wash and soak the moong dal and par-boiled rice in enough water in a deep bowl for at least 3 hours. Drain.
+Combine the moong dal and par-boiled rice in a mixer and blend till smooth using approx. 1¼ cups of water.
+Transfer the mixture into a deep bowl, cover it with a lid and allow it to ferment in a warm place for at least 8 to 10 hours.
+Add the salt and approx. ¼ cup of water and mix well.
+Heat a non-stick tava (griddle) and sprinkle a little water on the tava (griddle) and wipe it off gently using a muslin cloth.
+Pour a ladleful of the batter on it and spread it in a circular motion to make a 200 mm. (8”) diameter circle.
+Smear a little oil over it and along the edges and cook on a medium flame till the dosa turns golden brown in colour and crisp.
+Fold over to make a semi-circle or roll.
+Repeat with the remaining batter to make 14 more moong dal dosas.
+Serve the moong dal dosa immediately with and sambhar and coconut chutney.</t>
+  </si>
+  <si>
+    <t>Energy 137 cal
+Protein 4.3 g
+Carbohydrates 18.1 g
+Fiber 1.2 g
+Fat 5.2 g
+Cholesterol 0 mg
+Sodium 4.3 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_moong_dal_dosa__(__idlis_and_dosas_)-15886.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/moong-dal-dosa----idlis-and-dosas--1698r</t>
+  </si>
+  <si>
+    <t>Medu Vada recipe, Vada Recipe ( South Indian Recipe), urad dal vada</t>
+  </si>
+  <si>
+    <t>For Medu Vada
+1 cup urad dal (split black lentils)
+1 tbsp roughly chopped green chillies
+3 to 4 peppercorns (kalimirch)
+8 to 10 curry leaves (kadi patta)
+1 tsp chopped ginger (adrak)
+salt to taste
+1/4 cup finely chopped onions
+oil for deep-frying
+For Serving With Medu Vada
+sambhar
+coconut chutney</t>
+  </si>
+  <si>
+    <t>For medu vada
+To make medu vada, clean, wash and soak the urad dal in enough water for atleast 2 hours.
+Drain, add the green chillies, pepper, curry leaves and ginger and blend in a mixer to a smooth batter, adding approx. ½ cup water.
+Immerse both your hands in a bowlful of water and wet your hands well.
+Add the onions and salt and mix well and divide the mixture into 14 equal portions. Keep aside.
+Take a portion of the batter and place it in a palm and lightly flatten it.
+Using your index finger of the other hand make a hole in the centre of the vada.
+Transfer the vada on the fingers of the other hand and carefully slide it in hot oil.
+Deep-fry on a medium flame till it turns golden brown in colour from both the sides. You can deep-fry 2 to 3 medu vadas at a time.
+Repeat with the remaining batter to make more medu vadas. Drain on an absorbent paper.
+Serve the medu vada immediately with sambhar and coconut chutney.</t>
+  </si>
+  <si>
+    <t>Energy 97 cal
+Protein 3.6 g
+Carbohydrates 8.9 g
+Fiber 1.8 g
+Fat 5.2 g
+Cholesterol 0 mg
+Sodium 6 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_medu_vada_(_south_indian_recipe)-14245.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/medu-vada--south-indian-recipe-32683r</t>
+  </si>
+  <si>
+    <t>rava uttapam recipe | sada sooji uttapam | masala rava uttapam |</t>
+  </si>
+  <si>
+    <t>For Mini Rava Uttapam
+1 cup semolina (rava / sooji)
+2 tsp plain flour (maida)
+1/2 cup curd (dahi)
+2 tsp finely chopped green chillies
+1/2 tsp cumin seeds (jeera)
+2 tbsp grated coconut
+salt to taste
+oil for greasing and cooking
+For Serving With Mini Rava Uttapam
+coconut chutney</t>
+  </si>
+  <si>
+    <t>For mini rava uttapam
+To make mini rava uttapam, combine the rava, plain flour, curds and ½ cup of water in a deep bowl and mix well. Cover and keep aside for 20 minutes.
+Add the green chillies, cumin seeds, coconut, salt and ½ cup of water and mix well.
+Grease a non-stick mini uttapa pan with a little oil.
+Pour 2 tbsp of the batter in each uttapa mould and spread it lightly.
+Cook on both sides, using a little oil till they turn golden brown in colour from both the sides.
+Repeat steps 3 to 5 to make more mini uttapas.
+Serve the mini rava uttapam immediately with coconut chutney.
+Handy tip:
+If you do not have a mini uttapa pan, you can always make these uttapas using a non-stick tava (griddle).</t>
+  </si>
+  <si>
+    <t>Energy 47 cal
+Protein 1 g
+Carbohydrates 5.9 g
+Fiber 0.2 g
+Fat 2.1 g
+Cholesterol 0.8 mg
+Sodium 2.6 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_mini_rava_uttapa-15144.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/mini-rava-uttapam-sada-sooji-uttapam-37911r</t>
+  </si>
+  <si>
+    <t>Sooji Idli ( Suji Idli) recipe, Instant Rava Idli, instant suji ki idli</t>
+  </si>
+  <si>
+    <t>For The Sooji Idli Batter
+1 cup semolina (rava / sooji)
+1/4 cup curd (dahi)
+1 tbsp finely chopped coriander (dhania)
+salt to taste
+3/4 tsp fruit salt
+Other Ingredients For Sooji Idli
+1 tsp oil
+1/2 tsp mustard seeds ( rai / sarson)
+1/2 tsp cumin seeds (jeera)
+1 tsp urad dal (split black lentils)
+1 tbsp cashew nuts (kaju) , broken into pieces
+4 to 6 curry leaves (kadi patta)
+1 tsp finely chopped green chillies
+a pinch of asafoetida (hing)
+For Serving With Sooji Idli
+sambhar
+coconut chutney</t>
+  </si>
+  <si>
+    <t>For the sooji idli batter
+To make the sooji idli, combine all ingredients together, except the fruit salt, with 1 cup of water in a deep bowl, mix well and cover and keep aside for 10 minutes.
+How to proceed to make sooji idli
+Heat the oil in a small non-stick pan, add the mustard seeds, cumin seeds, urad dal , cashewnuts, curry leaves, green chilies and asafoetida and sauté on a medium flame for 1 minute.
+Add this tempering to the prepared semolina batter and mix well.
+Just before steaming, add the fruit salt and mix gently.
+Pour 2 tbsp of the sooji idli batter into each greased idli mould and steam in a steamer for 8 to 10 minutes.
+Cool the sooji idlis slightly, demould and serve immediately with sambhar and coconut chutney.</t>
+  </si>
+  <si>
+    <t>Energy 44 cal
+Protein 1.3 g
+Carbohydrates 7.4 g
+Fiber 0.1 g
+Fat 0.9 g
+Cholesterol 0.5 mg
+Sodium 2.9 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_sooji_idli_(_suji_idli)-15604.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/sooji-idli--suji-idli-1384r</t>
+  </si>
+  <si>
+    <t>tomato coconut chutney recipe | coconut tomato chutney | South Indian tomato coconut chutney |</t>
+  </si>
+  <si>
+    <t>For Tomato Coconut Chutney
+1/2 cup chopped tomatoes
+1/4 cup grated coconut
+1 tbsp oil
+1/2 tsp chana dal (split bengal gram)
+1/2 tsp urad dal (split black lentils)
+4 whole dry kashmiri red chillies , broken into pieces
+5 to 6 curry leaves (kadi patta)
+8 shallots (madras onions) , peeled
+salt to taste</t>
+  </si>
+  <si>
+    <t>For tomato coconut chutney
+Heat the oil in a broad non-stick pan, add the chana dal, urad dal, red chillies and curry leaves and sauté on a medium flame for a few seconds.
+Add the tomatoes and onions and sauté on a medium flame for 3 minutes.
+Add the coconut and salt and sauté on a medium flame for 1 to 2 minutes.
+Allow it to cool completely. Once cooled, blend in a mixer till smooth.
+Serve the coconut tomato chutney immediately with dosas or idlis or store upto 2 days, refrigerated and use as required.</t>
+  </si>
+  <si>
+    <t>Energy 23 cal
+Protein 0.3 g
+Carbohydrates 1.4 g
+Fiber 0.4 g
+Fat 1.8 g
+Cholesterol 0 mg
+Sodium 1.5 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_tomato_coconut_chutney-15396.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/tomato-coconut-chutney-3409r</t>
+  </si>
+  <si>
+    <t>Sambar Recipe, South Indian Homemade Sambar Recipe, How to make Sambar</t>
+  </si>
+  <si>
+    <t>For Sambar
+3/4 cup toovar (arhar) dal
+2 drumsticks (saijan ki phalli / saragavo) , cut into 3” pieces
+1/2 cup bottle gourd (doodhi / lauki) cubes
+1/2 cup potato cubes
+2 tbsp oil
+1 tsp mustard seeds ( rai / sarson)
+6 to 7 curry leaves (kadi patta)
+2 pinches of asafoetida (hing)
+1/2 cup chopped tomatoes
+8 small shallots (madras onions)
+2 1/2 tbsp tamarind (imli) pulp
+3 tbsp sambar powder
+2 tsp chilli powder
+a pinch of turmeric powder (haldi)
+salt to taste
+2 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>For sambar
+To make sambar, wash the toovar dal thoroughly and drain.
+Combine the washed dal and 2 cups of water in a pressure cooker and pressure cook for 3 whistles.
+Allow the steam to escape before opening the lid.
+Blend the dal using a hand blender till it is smooth and keep aside.
+Combine the drumsticks, bottle gourd and potatoes with 1 cup of water in a deep non-stick pan and cook on a medium flame for 4 to 5 minutes or till the vegetables are soft. Keep aside.
+Heat the oil in a deep non-stick pan and add the mustard seeds, curry leaves and asafoetida and sauté on a medium flame for a few seconds.
+Add the tomatoes, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Add the cooked bottle gourd and drumstick, shallots, tamarind pulp, cooked dal, , salt, sambhar masala, chilli powder, turmeric powder, salt and ¾ cup of water, mix well and bring to boil and allow to cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Add the coriander, mix well and cook on a medium flame for 1 minute.
+Serve the sambar hot.</t>
+  </si>
+  <si>
+    <t>Energy 143 cal
+Protein 5.2 g
+Carbohydrates 18.4 g
+Fiber 2.8 g
+Fat 5.4 g
+Cholesterol 0 mg
+Sodium 10.7 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_sambar_recipe,_south_indian_homemade_sambar_recipe-14343.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/sambar-recipe-south-indian-homemade-sambar-recipe-1557r</t>
+  </si>
+  <si>
+    <t>wheat dosa recipe | godhuma dosa recipe | instant wheat flour dosa |</t>
+  </si>
+  <si>
+    <t>For Wheat Dosa
+1 cup whole wheat flour (gehun ka atta)
+1/4 cup urad dal (split black lentil) flour
+salt to taste
+1/2 tsp oil
+1/4 tsp mustard seeds ( rai / sarson)
+1/4 tsp cumin seeds (jeera)
+5 curry leaves (kadi patta)
+1 tsp finely chopped green chillies
+1 1/2 tsp oil for cooking
+For Serving With Wheat Dosa
+sambhar</t>
+  </si>
+  <si>
+    <t>For wheat dosa
+To make wheat dosa, combine the whole wheat flour, urad dal flour, salt and approx. 1¼ cups of water in a deep bowl and mix well using a whisk. Cover it with a lid and keep aside to rest for 30 minutes.
+For the tempering, heat the oil in a small non-stick pan, add mustard seeds, cumin seeds, curry leaves and green chillies and sauté on a medium flame for 30 seconds. Pour this tempering over the batter and mix well.
+Heat a non-stick tava (griddle), sprinkle a little water on it and wipe it off gently using a muslin cloth.
+Pour a ladleful of the batter on it and spread it in a circular motion to make a 150 mm. (6”) diameter thin circle.
+Smear ? tsp of oil over it and along the edges and cook on a medium flame till the dosa turns light brown in colour from both the sides.
+Repeat steps 3 to 5 to make 11 more wheat dosas.
+Serve the wheat dosa immediately with sambhar.</t>
+  </si>
+  <si>
+    <t>Energy 52 cal
+Protein 1.8 g
+Carbohydrates 9.2 g
+Fiber 1.8 g
+Fat 1.1 g
+Cholesterol 0 mg
+Sodium 2.2 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_wheat_dosa,_godhuma_dosa_recipe-14516.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/wheat-dosa-godhuma-dosa-recipe-22272r</t>
+  </si>
+  <si>
+    <t>Coconut Rice, South Indian Coconut Rice recipe</t>
+  </si>
+  <si>
+    <t>For Coconut Rice
+1/2 cup freshly grated coconut
+2 1/2 cups cooked rice (chawal)
+2 tbsp sesame seeds (til)
+1 tsp ghee
+3 tbsp broken cashew nut (kaju)
+2 tsp oil
+1 tsp urad dal (split black lentils)
+1 tsp chana dal (split bengal gram)
+1 tsp cumin seeds (jeera)
+1 tsp mustard seeds ( rai / sarson)
+1 whole dry kashmiri red chilli , broken into pieces
+7 to 8 curry leaves (kadi patta)
+1/2 tsp asafoetida (hing)
+2 tsp finely chopped green chillies
+salt to taste</t>
+  </si>
+  <si>
+    <t>For coconut rice
+To make coconut rice, heat a small broad non-stick pan, add the sesame seeds and dry roast on a medium flame for 3 to 4 minutes, while stirring continuously.
+Allow the mixture to cool completely.
+When cool, blend in a mixer to a coarse powder and keep aside.
+Heat the ghee in the deep-non kadhai, add the cashewnuts and sauté on a medium flame for 2 to 3 minutes. Remove and keep aside.
+Heat the oil in the same non-stick deep kadhai, add the urad dal and chana dal and sauté on a medium flame for 30 seconds.
+Add the cumin seeds, mustard seeds, red chillies, curry leaves and asafoetida and sauté on a medium flame for 1 minute.
+Add the prepared sesame powder, green chillies, coconut, rice and salt, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Serve the coconut rice hot garnished with sautéed cashewnuts.</t>
+  </si>
+  <si>
+    <t>Energy 290 cal
+Protein 5.4 g
+Carbohydrates 30 g
+Fiber 4.2 g
+Fat 16.5 g
+Cholesterol 0 mg
+Sodium 7.3 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_coconut_rice,_south_indian_coconut_rice-14254.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/coconut-rice-south-indian-coconut-rice-32890r</t>
+  </si>
+  <si>
+    <t>Baked Ribbon Sev, South Indian Jar Snack recipe</t>
+  </si>
+  <si>
+    <t>1/2 cup besan (bengal gram flour)
+1/4 cup whole wheat flour (gehun ka atta)
+1/4 tsp turmeric powder (haldi)
+1/2 tsp chilli powder
+1/4 tsp asafoetida (hing)
+3/4 tbsp warm oil
+salt to taste</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients in a deep bowl and mix well and knead into a soft dough using enough water.
+Grease the ribbon shaped (the one with vertical lines) press mould with 1/8 tsp of oil, put a portion of the dough into it, press it and cover it with the lid.
+Press out ribbons of the sev arranging them straight on a greased baking tray and bake in a pre-heated oven at 180ºc (360ºf) for 10 minutes.
+Cool completely, transfer the sev into a deep bowl and break it into half using your fingers.
+Store in an air-tight container and use as required.</t>
+  </si>
+  <si>
+    <t>Energy 99 cal
+Protein 3.6 g
+Carbohydrates 13.3 g
+Fiber 2.9 g
+Fat 3.6 g
+Cholesterol 0 mg
+Sodium 10.8 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_baked_ribbon_sev,_south_indian_jar_snack-13245.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/baked-ribbon-sev-south-indian-jar-snack-41971r</t>
+  </si>
+  <si>
+    <t>tomato chutney recipe | tomato chutney for idlis, dosas, uttapas | South Indian tomato chutney for chapatis and puris |</t>
+  </si>
+  <si>
+    <t>For Tomato Chutney
+1 cup finely chopped tomatoes
+3 tsp oil
+1 tsp chana dal (split bengal gram)
+1 tsp urad dal (split black lentils)
+8 curry leaves (kadi patta)
+2 tsp finely chopped green chillies
+1/4 cup finely chopped onions
+turmeric powder (haldi)
+salt to taste
+1/2 tsp mustard seeds ( rai / sarson)
+1 whole dry kashmiri red chilli , broken into pieces</t>
+  </si>
+  <si>
+    <t>For tomato chutney
+To make tomato chutney, heat 2 tsp of oil in a broad non-stick pan, add the chana dal, urad dal and curry leaves and sauté on a medium flame for 1 minute or till the dals turn light brown in colour.
+Add the green chillies and onions and sauté on a medium flame for 1 more minute.
+Add the tomatoes and 2 tbsp of water, mix well and cook on a medium flame for 3 to 4 minutes, while stirring occasionally.
+Add the turmeric powder and salt, mix well and cook on a medium flame for 1 minute.
+Allow it to cool completely and blend in a mixer till smooth. Keep aside.
+Heat the remaining 1 tsp of oil in a small non-stick pan and add the mustard seeds.
+When the seeds crackle, add the red chillies and sauté on a medium flame for 30 seconds.
+Remove from the flame and pour this tempering over the tomato chutney and mix well.
+Serve the tomato chutney immediately or store refrigerated in an air-tight container for 2 days.</t>
+  </si>
+  <si>
+    <t>Energy 31 cal
+Protein 0.6 g
+Carbohydrates 2.1 g
+Fiber 0.6 g
+Fat 2.2 g
+Cholesterol 0 mg
+Sodium 3.8 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_tomato_chutney__(__idlis_and_dosas)-15191.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/tomato-chutney----idlis-and-dosas-1654r</t>
+  </si>
+  <si>
+    <t>Pesarattu recipe, Moong Dal Dosa, from Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>2 cups whole moong (whole green gram) , soaked for 4 hours and drained
+1/4 cup rice (chawal) , soaked for 4 hours and drained
+2 tsp oil
+1 cup finely chopped onions
+1 tsp roughly chopped ginger (adrak)
+1 tbsp roughly chopped green chillies
+salt to taste
+oil for cooking
+For Serving
+coriander coconut chutney</t>
+  </si>
+  <si>
+    <t>Heat the oil in a broad non-stick pan, add the onions and sauté on a medium flame for 1 to 2 minutes. Keep aside.
+Combine the ginger and green chillies in a mixer and blend till coarse.
+Add the whole moong, rice and 1 cup of water and blend to a coarse mixture.
+Transfer the mixture into a deep bowl, add 1 cup of water and salt and mix well. Cover with a lid and keep aside for 30 minutes.
+Heat a non-stick tava (griddle), sprinkle a little water on the tava (griddle) and wipe it off gently using a muslin cloth.
+Pour a ladleful of the mixture on the tava (griddle) and spread it evenly in a circular motion to make 125 mm. (6”) diameter round.
+Smear a little oil around the edges, sprinkle a little onions mixture evenly over it and cook on a medium flame, till the pesarattu turns golden brown in colour.
+When the lower side of the pesarattu is lightly browned, turn it over and cook on a medium flame on the other side using a little oil till it turns golden brown in colour.
+Fold over to make a semi-circle or a roll.
+Repeat with the remaining batter to make 14 more pesarattu.
+Serve immediately with coriander coconut chutney.</t>
+  </si>
+  <si>
+    <t>Energy 145 cal
+Protein 7.6 g
+Carbohydrates 20.5 g
+Fiber 5.3 g
+Fat 3.6 g
+Cholesterol 0 mg
+Sodium 9.1 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_pesarattu-11610.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/pesarattu-1688r</t>
+  </si>
+  <si>
+    <t>Bread Bhurji recipe</t>
+  </si>
+  <si>
+    <t>For Bread Bhurji
+5 slices whole wheat bread , cut into cubes
+1/2 cup low fat curds (dahi)
+1/4 tsp turmeric powder (haldi)
+1 tsp cumin seeds (jeera)
+1 slit green chilli
+3 to 4 curry leaves (kadi patta)
+1 tsp grated ginger (adrak)
+1/4 cup sliced onions
+2 tsp oil
+salt to taste
+For The Garnish
+2 tbsp chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>For bread bhurji
+To make bread bhurji, in a bowl, combine the curds, turmeric powder and salt with 2 tablespoons of water and mix well.
+Add the cubes of bread and mix well till the bread is coated with the curd mixture.
+Heat the oil in a non-stick pan and add the cumin seeds.
+When they crackle, add the green chillies, curry leaves and ginger and sauté for a few seconds.
+Add the onion slices and sauté till they are lightly browned.
+Add the bread mixture and sauté over low heat, stirring occasionally till the bread browns lightly.
+Serve the bread bhurji hot garnished with the coriander.</t>
+  </si>
+  <si>
+    <t>Energy 235 cal
+Protein 7.5 g
+Carbohydrates 36 g
+Fiber 0.9 g
+Fat 6.8 g
+Cholesterol 0 mg
+Sodium 34.6 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_bread_bhurji-15091.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/bread-bhurji-4678r</t>
+  </si>
+  <si>
+    <t>tulsi tea | Indian basil tea | tulsi tea for sore throat | tulsi tea for weight loss</t>
+  </si>
+  <si>
+    <t>For Tulsi Tea
+1/4 cup tulsi leaves (indian basil)
+2 tsp lemon juice</t>
+  </si>
+  <si>
+    <t>For tulsi tea
+To make tulsi tea, combine the tulsi and 1½ cups of water in a deep non-stick pan, mix well and cook on a medium flame for 10 minutes, while stirring occasionally.
+Strain the water using a strainer in a deep bowl.
+Add the lemon juice and mix well.
+Serve the tulsi tea warm.</t>
+  </si>
+  <si>
+    <t>Energy 9 cal
+Protein 0.2 g
+Carbohydrates 1.8 g
+Fiber 0.3 g
+Fat 0.1 g
+Cholesterol 0 mg
+Sodium 0.3 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_tulsi_tea-15861.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/tulsi-tea-4232r</t>
+  </si>
+  <si>
+    <t>For bajra roti
+Combine the bajra flour, whole wheat flour and salt in a deep bowl and knead into a soft dough using approx. ¾ cup of warm water.
+Divide the dough into 8 equal portions.
+Roll out a portion of the dough into a 150 mm. (6") diameter thick roti using a little whole wheat flour for rolling.
+Heat a non-stick tava (griddle), place the roti over it and cook it for a few seconds or till a few bristles appear on top.
+Turn over the roti and cook the other side for a few more seconds.
+Lift the roti with a pair of flat tongs and roast over an open flame till brown spots appear on both the sides.
+Smear 1/2 tsp ghee on top.
+Repeat steps 3 to 7 to make 7 more bajra rotis.
+Serve bajra roti | bajre ki roti | healthy pearl millet roti | rajasthani bajra roti immediately with white butter.</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_bajra_roti-15827.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>Rajgira Buckwheat Brown Rice Flour Khakhra recipe</t>
+  </si>
+  <si>
+    <t>1/2 cup rajgira (amaranth) flour
+1/2 cup buckwheat (kuttu or kutti no daro) flour
+1/2 cup brown rice flour
+1 cup chopped green chawli (amaranth) leaves
+2 tbsp flax seeds
+1 tsp sesame seeds (til)
+1 tsp ginger-green chilli paste
+2 tbsp oil
+salt to taste
+brown rice flour for rolling
+5 tsp ghee for cooking</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients in a deep bowl and knead into a semi-soft dough using enough water.
+Divide the dough into 20 equal portions.
+Roll a portion of the dough into a 150 mm. (6") diameter thin circle using a little brown rice flour for rolling.
+Heat a non-stick tava (griddle) and cook the khakhra on a slow flame till pink spots appear on both the sides.
+Continue cooking the khakhra on a slow flame using ¼ tsp ghee while pressing with a khakhra press or a folded muslin cloth, till it turns crisp and golden brown spots appear on both the sides.
+Cool and serve or store in an air-tight container. Use as required.</t>
+  </si>
+  <si>
+    <t>Energy 66 cal
+Protein 1.3 g
+Carbohydrates 7.9 g
+Fiber 1.3 g
+Fat 3.4 g
+Cholesterol 0 mg
+Sodium 9 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_rajgira__buckwheat_brown_rice_flour_khakhra-13806.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/rajgira--buckwheat-brown-rice-flour-khakhra-42547r</t>
+  </si>
+  <si>
+    <t>Lettuce and Cauliflower Soup recipe</t>
+  </si>
+  <si>
+    <t>3 cups iceberg lettuce , torn into pieces
+1 cup finely chopped cauliflower
+2 tsp oil
+1/4 cup finely chopped onions
+salt and freshly ground black pepper (kalimirch) to taste</t>
+  </si>
+  <si>
+    <t>Heat the oil in a deep non-stick pan, add the onions and sauté on a medium flame for 1 minute.
+Add the lettuce and cauliflower and sauté on a medium flame for 2 minutes
+Add 3 cups of water and salt, mix well and cook on a medium flame for 10 minutes, while stirring occasionally.
+Allow the mixture to cool completely and blend in a mixer to a smooth purée.
+Transfer the purée into a deep non-stick pan, add the pepper powder, mix well and cook on a medium flame for 5 minutes, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 50 cal
+Protein 2.3 g
+Carbohydrates 3.9 g
+Fiber 1.7 g
+Fat 2.8 g
+Cholesterol 0 mg
+Sodium 55 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_lettuce_and_cauliflower_soup-8852.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/lettuce-and-cauliflower-soup-39641r</t>
+  </si>
+  <si>
+    <t>Gujarati toovar dal sweet and spicy recipe | Gujarati toovar dal for marriage |</t>
+  </si>
+  <si>
+    <t>For Gujarati Toovar Dal Sweet and Spicy
+1/2 cup toovar (arhar) dal , washed and drained
+1/2 tsp turmeric powder (haldi)
+2 sliced green chillies
+1/4 tsp finely chopped ginger (adrak)
+1/4 cup chopped tomatoes
+1/4 cup chopped jaggery (gur)
+salt to taste
+1 tbsp oil
+1 tsp mustard seeds ( rai / sarson)
+1/2 tsp cumin seeds (jeera)
+2 cloves (laung / lavang)
+1 small stick cinnamon (dalchini)
+4 to 5 curry leaves (kadi patta)
+1/4 tsp asafoetida (hing)
+1/2 tsp chilli powder
+2 tsp lemon juice
+2 tbsp finely chopped coriander (dhania)
+For Serving
+1/4 rice (chawal)</t>
+  </si>
+  <si>
+    <t>For gujarati toovar dal sweet and spicy
+To make gujarati toovar dal sweet and spicy, combine the toovar dal and 1½ cups of water in a pressure cooker, mix well and pressure cooker for 3 whistles.
+Allow the steam to escape before opening the lid.
+Add 1 cup of water to the cooked toovar dal and blend it using a hand blender to a smooth mixture.
+Transfer the mixture into a deep non-stick pan, add the turmeric powder, green chillies, ginger, tomatoes, jaggery, 1½ cups of water and salt, mix well and cook on a medium flame for 10 minutes, while stirring occasionally.
+Meanwhile, heat the oil in a small broad non-stick pan, add the mustard seeds and cumin seeds.
+When the seeds crackle, add the cloves, cinnamon and curry leaves and sauté on a medium flame for a few seconds.
+Switch off the flame, add the asafoetida, chilli powder, mix well and immediately add it to the boiling dal.
+Mix the dal well and continue cooking on a medium flame for 4 to 5 minutes, while stirring occasionally.
+Add the lemon juice and coriander, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Serve the gujarati toovar dal sweet and spicy hot with roti or rice.</t>
+  </si>
+  <si>
+    <t>Energy 144 cal
+Protein 4.8 g
+Carbohydrates 21.8 g
+Fiber 2.2 g
+Fat 4.2 g
+Cholesterol 0 mg
+Sodium 8.1 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_gujarati_toovar_dal-15643.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/toovar-dal-sweet-and-spicy-gujarati-toovar-dal-for-marriage-40697r</t>
+  </si>
+  <si>
+    <t>karela tikki recipe | bottle gourd tikki | healthy Indian tikki | karela tikki with garlic tomato chutney |</t>
+  </si>
+  <si>
+    <t>For Karela Tikkis
+1/2 cup grated bitter gourd (karela) , unpeeled
+salt to taste
+3/4 cup grated carrot
+3/4 cup boiled and coarsely mashed green peas
+1/2 cup crumbled low fat paneer (cottage cheese)
+2 tbsp finely chopped coriander (dhania)
+1/2 cup quick cooking rolled oats
+1 tsp green chilli paste
+1 tbsp lemon juice
+1 1/2 tsp peanut oil or for greasing and cooking
+For The Garlic Tomato Chutney
+1 1/2 tbsp finely chopped garlic (lehsun)
+1 cup finely chopped tomatoes
+1 tsp oil
+1/4 cup finely chopped spring onions whites
+2 whole dry kashmiri red chillies , soaked and finely chopped
+salt to taste
+1 tbsp finely chopped coriander (dhania)
+1 tbsp finely chopped spring onion greens</t>
+  </si>
+  <si>
+    <t>For karela tikkis
+Apply a little salt to the bitter gourd, mix well and keep aside for 2 to 3 minutes. Squeeze and keep the water aside. This water can be used as given in the handy tip.
+Combine the bitter gourd, carrot, green peas, paneer, coriander, oats, green chilli paste, lemon juice and salt in a bowl and mix well.
+Divide the mixture into 16 equal portions and shape each portion into 50 mm. (2”) flat round tikkis.
+Heat a non-stick tava (griddle) and grease it using ¼ tsp of oil.
+Place 8 karela tikkis and cook them, using ½ tsp of oil, till they turn golden brown in colour from both the sides.
+Repeat step 4 and 5 to cook 8 more karela tikkis. Keep aside.
+For the garlic tomato chutney
+Heat the oil in a broad non-stick pan, add the garlic and spring onion whites and sauté on a medium flame for 1 to 2 minutes.
+Add the red chillies, tomatoes, salt and 1 tbsp water, mix well and cook on a slow flame for 3 to 4 minutes, while stirring continuously and lightly mashing with the back of a spoon.
+Switch of the flame, add the coriander and spring onion greens and mix well.
+How to serve karela tikkis
+Serve the karela tikkis hot with garlic tomato chutney.
+Handy tips:
+While grating the bitter gourd, start grating without peeling and avoid including white portion and seeds inside it.
+You will benefit from drinking the water squeezed from the karela as well. To cut its bitter taste, mix with a glass of water or tomato juice.</t>
+  </si>
+  <si>
+    <t>Energy 75 kcal
+Protein 3.6 gm
+Carbohydrates 11.5 gm
+Fat 2.4 gm
+Fibre 2.5 gm
+Vitamin A 410.4 mcg
+Vitamin C 14.5 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_karela_tikkis,_bitter_gourd_tikki_recipe-14348.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/karela-tikkis-bitter-gourd-tikki-recipe-22273r</t>
+  </si>
+  <si>
+    <t>flax seed raita recipe | healthy flax seed raita | doodhi, mint and curd flax seed raita |</t>
+  </si>
+  <si>
+    <t>For Flax Seed Raita
+1 cup thickly grated bottle gourd (doodhi / lauki)
+1 cup fresh beaten low fat curds (dahi)
+1/2 cup finely chopped mint leaves (phudina) leaves
+1/4 tsp roasted cumin seeds (jeera)
+1/4 tsp black salt (sanchal)
+1/2 tsp sugar
+1 1/2 tbsp roasted and coarsely ground flax seeds
+salt to taste</t>
+  </si>
+  <si>
+    <t>For flax seed raita
+Combine the bottle gourd with ¼ cup of water in a deep pan and mix well. Cover and cook on a medium flame for 4 to 5 minutes or till all the water evaporates. Keep aside to cool.
+Combine all the ingredients, including the cooked bottle gourd in a deep bowl and mix well.
+Refrigerate the flax seed raita for at least 1 hour.
+Serve the flax seed raita chilled.
+Handy tip:
+Blend 1½ tbsp of flax seeds in a mixer to get 2 tbsp of flax seeds powder.</t>
+  </si>
+  <si>
+    <t>Energy 32 kcal
+Protein 2.3 gm
+Carbohydrate 4.5 gm
+Fat 0.6 gm
+Calcium 90.4 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_flax_seed_raita_(_omega-3_fatty_acids_and_calcium_rich_recipe_)-9363.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/flax-seed-raita--omega-3-fatty-acids-and-calcium-rich-recipe--35093r</t>
+  </si>
+  <si>
+    <t>How To Make Homemade Skimmed Milk recipe</t>
+  </si>
+  <si>
+    <t>For Skimmed Milk
+4 1/2 cups full-fat milk</t>
+  </si>
+  <si>
+    <t>For skimmed milk
+To make skimmed milk, boil the milk in a deep non-stick pan, which will take 8 to 10 minutes.
+Cool for atleast 2 to 3 hours.
+Put it in the refrigerator for atleast 10 to 12 hours.
+Remove the cream from the top.
+Repeat steps 1 to 4 two more times to get the skimmed milk. Use as required.</t>
+  </si>
+  <si>
+    <t>Energy 351 cal
+Protein 12.9 g
+Carbohydrates 15 g
+Fiber 0 g
+Fat 19.5 g
+Cholesterol 48 mg
+Sodium 57 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_how_to_make_homemade_skimmed_milk-13631.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/how-to-make-homemade-skimmed-milk-42374r</t>
+  </si>
+  <si>
+    <t>For ginger cinnamon tea
+To make ginger cinnamon tea, combine the ginger, cinnamon and 2 cups of water in a non-stick saucepan. Mix well, cover with a lid and cook on a medium flame for 8 minutes.
+Strain the mixture.
+Add the honey and mix well.
+Serve the ginger cinnamon tea warm.</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_ginger_cinnamon_tea-15822.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>onion tomato koshimbir recipe | healthy onion tomato salad | kanda tomato koshimbir |</t>
+  </si>
+  <si>
+    <t>For Onion Tomato Koshimbir
+1/2 cup chopped onions
+1 1/4 cups chopped tomatoes
+2 tbsp finely chopped coriander (dhania)
+salt to taste
+1 1/2 tsp oil
+1/2 tsp mustard seeds ( rai / sarson)
+1/4 tsp asafoetida (hing)
+1 1/2 tsp roughly chopped green chillies</t>
+  </si>
+  <si>
+    <t>For onion tomato koshimbir
+To make onion tomato koshimbir, combine the onions, tomatoes, coriander and salt in a deep bowl and mix well. Keep aside.
+Heat the oil in a small non-stick pan and add the mustard seeds.
+When the seeds crackle, add the asafoetida, green chillies and sauté on a medium flame for a few seconds.
+Pour the tempering over the tomato-onion mixture and mix well.
+Serve the onion tomato koshimbir immediately.</t>
+  </si>
+  <si>
+    <t>Energy 42 cal
+Protein 0.7 g
+Carbohydrates 4.9 g
+Fiber 1 g
+Fat 2.1 g
+Cholesterol 0 mg
+Sodium 7.8 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_onion_tomato_koshimbir-14928.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/onion-tomato-koshimbir-40185r</t>
+  </si>
+  <si>
+    <t>How To Make Karela Juice, Bitter Gourd Juice for Diabetes recipe</t>
+  </si>
+  <si>
+    <t>For Karela Juice
+1 cup deseeded and roughly chopped bitter gourd (karela)
+1/2 tsp lemon juice
+salt to taste</t>
+  </si>
+  <si>
+    <t>For karela juice
+To make karela juice, combine the karela and ½ cup of water in mixer and blend till smooth.
+Strain the mixture using ½ cup of water.
+Add the lemon juice and salt and mix well.
+Pour equal quantities of the karela juice into 2 small glasses and serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 15 cal
+Protein 0.9 g
+Carbohydrates 2.6 g
+Fiber 2.5 g
+Fat 0.1 g
+Cholesterol 0 mg
+Sodium 1.4 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_how_to_make_karela_juice,_bitter_gourd_juice_for_diabetes-14291.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/how-to-make-karela-juice-bitter-gourd-juice-for-diabetes-42323r</t>
+  </si>
+  <si>
+    <t>For anti- aging breakfast platter
+To make anti- aging breakfast platter, combine the sprouted moong, paneer, chilli powder, cumin seeds powder and rock salt in a bowl and mix well.
+Arrange all the ingredients on a platter and serve immediately.</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_anti-_aging_breakfast_platter-14956.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>broccoli broth recipe | healthy veg clear broccoli carrot soup | veg broccoli carrot broth |</t>
+  </si>
+  <si>
+    <t>For Broccoli Broth
+1 cup broccoli florets
+1 tsp olive oil
+1/2 cup thinly sliced onions
+1/2 tsp finely chopped garlic (lehsun)
+1/2 cup thinly sliced carrots
+2 tbsp finely chopped celery (ajmoda)
+salt and to taste</t>
+  </si>
+  <si>
+    <t>For broccoli broth
+To make broccoli broth, heat the olive oil in a deep non-stick pan, add the onions, garlic, carrots and celery and sauté on amedium flame for 2 to 3 minutes.
+Add the broccoli, salt and 2½ cups of hot water, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Add the pepper and mix well.
+Serve the broccoli broth hot.</t>
+  </si>
+  <si>
+    <t>Energy 27 cal
+Protein 0.7 g
+Carbohydrates 3.4 g
+Fiber 1 g
+Fat 1.3 g
+Cholesterol 0 mg
+Sodium 12.1 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_broccoli_broth,_healthy_clear_broccoli_carrot_soup-15464.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/broccoli-broth-healthy-clear-broccoli-carrot-soup-4623r</t>
+  </si>
+  <si>
+    <t>how to cook brown rice on an open flame | deep non stick pan | open flame |</t>
+  </si>
+  <si>
+    <t>For Brown Rice
+3/4 cup brown rice
+salt to taste</t>
+  </si>
+  <si>
+    <t>How to cook brown rice
+To cook brown rice, soak the brown rice in enough water in a bowl for 2 hours. Drain well.
+Boil enough water in a deep non-stick pan, add the salt and soaked and drained brown rice, mix well and cook on a medium flame for approx. 25 minutes, while stirring occasionally.
+Drain the brown rice well, transfer to a plate and separate each grain using a fork lightly.
+Use the coooked brown rice as required.</t>
+  </si>
+  <si>
+    <t>Energy 211 cal
+Protein 4.4 g
+Carbohydrates 44.4 g
+Fiber 2 g
+Fat 1.6 g
+Cholesterol 0 mg
+Sodium 2.3 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_brown_rice_(_zero_oil_dal_chawal_recipe)-14158.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/how-to-cook-brown-rice-22529r</t>
+  </si>
+  <si>
+    <t>turmeric with black pepper recipe | haldi and black pepper with ghee/olive oil |</t>
+  </si>
+  <si>
+    <t>For Turmeric With Black Pepper For Anti-inflammation
+1 tsp turmeric powder (haldi)
+1/8 tsp freshly ground black pepper (kalimirch)
+1 tsp melted ghee</t>
+  </si>
+  <si>
+    <t>For turmeric with black pepper
+To make turmeric with black pepper for anti-inflammation, combine the turmeric powder, black pepper powder and ghee in a small plate and mix well.
+Serve the turmeric with black pepper for anti-inflammation immediately.</t>
+  </si>
+  <si>
+    <t>Energy 52 cal
+Protein 0.4 g
+Carbohydrates 1.3 g
+Fiber 0.4 g
+Fat 5.2 g
+Cholesterol 0 mg
+Sodium 0.7 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_turmeric_with_black_pepper_for_anti-inflammation-14304.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/turmeric-with-black-pepper-for-anti-inflammation-42772r</t>
+  </si>
+  <si>
+    <t>Indian style homemade almond milk | badam milk made using soaked almonds |</t>
+  </si>
+  <si>
+    <t>For Homemade Almond Milk Made With Soaked Almonds
+20 almonds (badam)
+1/4 tsp vanilla essence</t>
+  </si>
+  <si>
+    <t>To make homemade almond milk made with soaked almonds, combine the almonds and enough water in a deep bowl, cover with lid and keep aside to soak overnight. Drain.
+Combine the soaked almonds, do not peel them and add the vanilla essence and ¾ cup of cold water in a blender and blend very well. No need to strain the milk.
+We recommend a high quality a bullet blender or a vitamix. If the quality of the blender is not good it will not be smooth and there will be small almond pieces left. We have also not strained the milk.
+Refrigerate till use and serve chilled. It lasts good in the fridge for 3 days we have tested it.</t>
+  </si>
+  <si>
+    <t>Energy 131 cal
+Protein 4.2 g
+Carbohydrates 2.1 g
+Fiber 0.3 g
+Fat 11.8 g
+Cholesterol 0 mg
+Sodium 0 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_homemade_almond_milk_made_with_soaked_almonds-13451.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/homemade-almond-milk-made-with-soaked-almonds-42192r</t>
+  </si>
+  <si>
+    <t>quinoa upma recipe | vegetable quinoa upma |</t>
+  </si>
+  <si>
+    <t>For quinoa veg upma
+To make quinoa veg upma, heat the oil in a deep non-stick pan, add the mustard seeds and asafoetida and sauté on a medium flame for a few seconds.
+Add the green chillies, ginger and curry leaves and sauté on a medium flame for a few seconds.
+Add the peanuts and sauté on a medium flame for 1 minute.
+Add the onions and sauté on a medium flame for 2 minutes.
+Add the green peas and carrot and sauté on a medium flame for 2 minutes.
+Add the quinoa and sauté on a medium flame for 1 minute.
+Add the chilli powder, salt and 2¼ cups of hot water, mix well cover with a lid and cook on a medium flame for 20 to 22 minutes, while stirring occasionally.
+Switch off the flame, add the coriander and lemon juice and mix well.
+Serve the quinoa veg upma immediately.</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_quinoa_veg_upma,_vegan_breakfast-14697.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>Fenugreek and Mushroom Brown Rice recipe, Indian Diabetic Recipes</t>
+  </si>
+  <si>
+    <t>2 cups finely chopped fenugreek (methi) leaves
+1 cup sliced mushrooms (khumbh)
+1 cup brown rice
+2 tsp oil
+2 tsp finely chopped green chillies
+1 tsp finely chopped ginger (adrak)
+1 tbsp finely chopped garlic (lehsun)
+1 cup finely chopped onions
+1/2 cup finely chopped tomatoes
+1/2 cup brinjal (baingan / eggplant) cubes
+1/2 cup surti papdi seeds (fresh vaal seeds)
+1/2 tsp chilli powder
+salt to taste
+For The Garnish
+2 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Heat the oil in a pressure cooker, add the green chillies, ginger, garlic, and onions and sauté on a medium flame for 2 minutes.
+Add the fenugreek leaves, mushrooms, tomatoes, brinjals, surti papadi seeds,and chilli powder, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Add the brown rice, 2¼ cups of hot water and salt, mix well and pressure cook for 4 whistles.
+Allow the steam to escape before opening the lid.
+Serve hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Energy 151 cal
+Protein 3.9 g
+Carbohydrates 27.6 g
+Fiber 3.3 g
+Fat 2.8 g
+Cholesterol 0 mg
+Sodium 19.9 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_wholesome_pulao-8113.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/fenugreek-and-mushroom-brown-rice-7468r</t>
+  </si>
+  <si>
+    <t>Apple Cinnamon Soya Shake recipe, Indian Diabetic Recipes</t>
+  </si>
+  <si>
+    <t>3 cups apple cubes (unpeeled)
+1/2 tsp cinnamon (dalchini) powder
+1 cup chilled soya milk (unflavoured)
+2 cups chilled low-fat milk , 99.7% fat-free
+1/2 tsp sugar substitute (optional)</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients in a mixer and blend till smooth and frothy.
+Pour equal quantities of the shake into 6 individual glasses.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 69 cal
+Protein 3.5 g
+Carbohydrates 11.7 g
+Fiber 2.2 g
+Fat 0.9 g
+Cholesterol 0 mg
+Sodium 49.6 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_apple_cinnamon_soya_shake-9263.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-cinnamon-soya-shake-7459r</t>
+  </si>
+  <si>
+    <t>Buckwheat Dhokla recipe | high fibre buckwheat dhokla | healthy</t>
+  </si>
+  <si>
+    <t>For Buckwheat Dhoklas
+1 1/4 cups buckwheat (kuttu or kutti no daro)
+1/2 cup sour curds (khatta dahi)
+1 tsp green chilli paste
+1/4 tsp ginger (adrak) paste
+salt to taste</t>
+  </si>
+  <si>
+    <t>Clean and wash the buckwheat in enough water only once. Washing it more will cause the starch to drain out.
+Drain the excess water using a strainer.
+Combine the buckwheat, curds and ½ cup of water in a deep bowl and mix well. Cover with a lid and keep aside to soak for at least 4 to 5 hours.
+Add the green chilli paste, ginger paste and salt and mix very well.
+Pour half the batter into a greased 175 mm. (7") diameter thali and spread evenly by rotating the thali clockwise.
+Steam in a steamer for 10 to 12 minutes or till the dhoklas are cooked.
+Repeat steps 5 and 6 to make 1 more thali.
+Cool slightly, cut into pieces and serve immediately.
+Handy tip :
+At step 3, allow the mixture to soak for at least 4 hours in summer season. In winter season the soaking time should be increased to 5 hours and if needed to 6 hours depending on the temperature. This will ensure soft dhoklas as the end result.</t>
+  </si>
+  <si>
+    <t>Energy 136 cal
+Protein 4.5 g
+Carbohydrates 23.8 g
+Fiber 3 g
+Fat 2.1 g
+Cholesterol 3.2 mg
+Sodium 9.5 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_buckwheat_dhoklas-13777.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/buckwheat-dhoklas-5282r</t>
   </si>
 </sst>
 </file>
@@ -1729,8 +3379,1058 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="351">
+  <cellXfs count="701">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
     </xf>
@@ -3746,7 +6446,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3817,6 +6517,468 @@
         <v>129</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E6" t="s">
+        <v>285</v>
+      </c>
+      <c r="F6" t="s">
+        <v>286</v>
+      </c>
+      <c r="G6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E8" t="s">
+        <v>297</v>
+      </c>
+      <c r="F8" t="s">
+        <v>298</v>
+      </c>
+      <c r="G8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9" t="s">
+        <v>301</v>
+      </c>
+      <c r="D9" t="s">
+        <v>302</v>
+      </c>
+      <c r="E9" t="s">
+        <v>303</v>
+      </c>
+      <c r="F9" t="s">
+        <v>304</v>
+      </c>
+      <c r="G9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>306</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D10" t="s">
+        <v>308</v>
+      </c>
+      <c r="E10" t="s">
+        <v>309</v>
+      </c>
+      <c r="F10" t="s">
+        <v>310</v>
+      </c>
+      <c r="G10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D11" t="s">
+        <v>314</v>
+      </c>
+      <c r="E11" t="s">
+        <v>315</v>
+      </c>
+      <c r="F11" t="s">
+        <v>316</v>
+      </c>
+      <c r="G11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12" t="s">
+        <v>319</v>
+      </c>
+      <c r="D12" t="s">
+        <v>320</v>
+      </c>
+      <c r="E12" t="s">
+        <v>321</v>
+      </c>
+      <c r="F12" t="s">
+        <v>322</v>
+      </c>
+      <c r="G12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13" t="s">
+        <v>325</v>
+      </c>
+      <c r="D13" t="s">
+        <v>326</v>
+      </c>
+      <c r="E13" t="s">
+        <v>327</v>
+      </c>
+      <c r="F13" t="s">
+        <v>328</v>
+      </c>
+      <c r="G13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>330</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14" t="s">
+        <v>331</v>
+      </c>
+      <c r="D14" t="s">
+        <v>332</v>
+      </c>
+      <c r="E14" t="s">
+        <v>333</v>
+      </c>
+      <c r="F14" t="s">
+        <v>334</v>
+      </c>
+      <c r="G14" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>336</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15" t="s">
+        <v>337</v>
+      </c>
+      <c r="D15" t="s">
+        <v>338</v>
+      </c>
+      <c r="E15" t="s">
+        <v>339</v>
+      </c>
+      <c r="F15" t="s">
+        <v>340</v>
+      </c>
+      <c r="G15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>342</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16" t="s">
+        <v>343</v>
+      </c>
+      <c r="D16" t="s">
+        <v>344</v>
+      </c>
+      <c r="E16" t="s">
+        <v>345</v>
+      </c>
+      <c r="F16" t="s">
+        <v>346</v>
+      </c>
+      <c r="G16" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>348</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17" t="s">
+        <v>349</v>
+      </c>
+      <c r="D17" t="s">
+        <v>350</v>
+      </c>
+      <c r="E17" t="s">
+        <v>351</v>
+      </c>
+      <c r="F17" t="s">
+        <v>352</v>
+      </c>
+      <c r="G17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>354</v>
+      </c>
+      <c r="B18"/>
+      <c r="C18" t="s">
+        <v>355</v>
+      </c>
+      <c r="D18" t="s">
+        <v>356</v>
+      </c>
+      <c r="E18" t="s">
+        <v>357</v>
+      </c>
+      <c r="F18" t="s">
+        <v>358</v>
+      </c>
+      <c r="G18" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>360</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19" t="s">
+        <v>361</v>
+      </c>
+      <c r="D19" t="s">
+        <v>362</v>
+      </c>
+      <c r="E19" t="s">
+        <v>363</v>
+      </c>
+      <c r="F19" t="s">
+        <v>364</v>
+      </c>
+      <c r="G19" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>366</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20" t="s">
+        <v>367</v>
+      </c>
+      <c r="D20" t="s">
+        <v>368</v>
+      </c>
+      <c r="E20" t="s">
+        <v>369</v>
+      </c>
+      <c r="F20" t="s">
+        <v>370</v>
+      </c>
+      <c r="G20" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>372</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21" t="s">
+        <v>373</v>
+      </c>
+      <c r="D21" t="s">
+        <v>374</v>
+      </c>
+      <c r="E21" t="s">
+        <v>375</v>
+      </c>
+      <c r="F21" t="s">
+        <v>376</v>
+      </c>
+      <c r="G21" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>378</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22" t="s">
+        <v>379</v>
+      </c>
+      <c r="D22" t="s">
+        <v>380</v>
+      </c>
+      <c r="E22" t="s">
+        <v>381</v>
+      </c>
+      <c r="F22" t="s">
+        <v>382</v>
+      </c>
+      <c r="G22" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>384</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23" t="s">
+        <v>385</v>
+      </c>
+      <c r="D23" t="s">
+        <v>386</v>
+      </c>
+      <c r="E23" t="s">
+        <v>387</v>
+      </c>
+      <c r="F23" t="s">
+        <v>388</v>
+      </c>
+      <c r="G23" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>390</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24" t="s">
+        <v>391</v>
+      </c>
+      <c r="D24" t="s">
+        <v>392</v>
+      </c>
+      <c r="E24" t="s">
+        <v>393</v>
+      </c>
+      <c r="F24" t="s">
+        <v>394</v>
+      </c>
+      <c r="G24" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>396</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25" t="s">
+        <v>397</v>
+      </c>
+      <c r="D25" t="s">
+        <v>398</v>
+      </c>
+      <c r="E25" t="s">
+        <v>399</v>
+      </c>
+      <c r="F25" t="s">
+        <v>400</v>
+      </c>
+      <c r="G25" t="s">
+        <v>401</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3824,7 +6986,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3895,6 +7057,468 @@
         <v>137</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5" t="s">
+        <v>403</v>
+      </c>
+      <c r="D5" t="s">
+        <v>404</v>
+      </c>
+      <c r="E5" t="s">
+        <v>405</v>
+      </c>
+      <c r="F5" t="s">
+        <v>406</v>
+      </c>
+      <c r="G5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6" t="s">
+        <v>409</v>
+      </c>
+      <c r="D6" t="s">
+        <v>410</v>
+      </c>
+      <c r="E6" t="s">
+        <v>411</v>
+      </c>
+      <c r="F6" t="s">
+        <v>412</v>
+      </c>
+      <c r="G6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>414</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>416</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D8" t="s">
+        <v>418</v>
+      </c>
+      <c r="E8" t="s">
+        <v>419</v>
+      </c>
+      <c r="F8" t="s">
+        <v>420</v>
+      </c>
+      <c r="G8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9" t="s">
+        <v>423</v>
+      </c>
+      <c r="D9" t="s">
+        <v>424</v>
+      </c>
+      <c r="E9" t="s">
+        <v>425</v>
+      </c>
+      <c r="F9" t="s">
+        <v>426</v>
+      </c>
+      <c r="G9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>428</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10" t="s">
+        <v>429</v>
+      </c>
+      <c r="D10" t="s">
+        <v>430</v>
+      </c>
+      <c r="E10" t="s">
+        <v>431</v>
+      </c>
+      <c r="F10" t="s">
+        <v>432</v>
+      </c>
+      <c r="G10" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>434</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11" t="s">
+        <v>435</v>
+      </c>
+      <c r="D11" t="s">
+        <v>436</v>
+      </c>
+      <c r="E11" t="s">
+        <v>437</v>
+      </c>
+      <c r="F11" t="s">
+        <v>438</v>
+      </c>
+      <c r="G11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12" t="s">
+        <v>441</v>
+      </c>
+      <c r="D12" t="s">
+        <v>442</v>
+      </c>
+      <c r="E12" t="s">
+        <v>443</v>
+      </c>
+      <c r="F12" t="s">
+        <v>444</v>
+      </c>
+      <c r="G12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>446</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13" t="s">
+        <v>447</v>
+      </c>
+      <c r="D13" t="s">
+        <v>448</v>
+      </c>
+      <c r="E13" t="s">
+        <v>449</v>
+      </c>
+      <c r="F13" t="s">
+        <v>450</v>
+      </c>
+      <c r="G13" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>452</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
+        <v>453</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>454</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15" t="s">
+        <v>455</v>
+      </c>
+      <c r="D15" t="s">
+        <v>456</v>
+      </c>
+      <c r="E15" t="s">
+        <v>457</v>
+      </c>
+      <c r="F15" t="s">
+        <v>458</v>
+      </c>
+      <c r="G15" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>460</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16" t="s">
+        <v>461</v>
+      </c>
+      <c r="D16" t="s">
+        <v>462</v>
+      </c>
+      <c r="E16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F16" t="s">
+        <v>464</v>
+      </c>
+      <c r="G16" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>466</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
+        <v>467</v>
+      </c>
+      <c r="G17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>468</v>
+      </c>
+      <c r="B18"/>
+      <c r="C18" t="s">
+        <v>469</v>
+      </c>
+      <c r="D18" t="s">
+        <v>470</v>
+      </c>
+      <c r="E18" t="s">
+        <v>471</v>
+      </c>
+      <c r="F18" t="s">
+        <v>472</v>
+      </c>
+      <c r="G18" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>474</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19" t="s">
+        <v>475</v>
+      </c>
+      <c r="D19" t="s">
+        <v>476</v>
+      </c>
+      <c r="E19" t="s">
+        <v>477</v>
+      </c>
+      <c r="F19" t="s">
+        <v>478</v>
+      </c>
+      <c r="G19" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>480</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20" t="s">
+        <v>481</v>
+      </c>
+      <c r="D20" t="s">
+        <v>482</v>
+      </c>
+      <c r="E20" t="s">
+        <v>483</v>
+      </c>
+      <c r="F20" t="s">
+        <v>484</v>
+      </c>
+      <c r="G20" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>486</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21" t="s">
+        <v>487</v>
+      </c>
+      <c r="D21" t="s">
+        <v>488</v>
+      </c>
+      <c r="E21" t="s">
+        <v>489</v>
+      </c>
+      <c r="F21" t="s">
+        <v>490</v>
+      </c>
+      <c r="G21" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>492</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>493</v>
+      </c>
+      <c r="E22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" t="s">
+        <v>494</v>
+      </c>
+      <c r="G22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>495</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23" t="s">
+        <v>496</v>
+      </c>
+      <c r="D23" t="s">
+        <v>497</v>
+      </c>
+      <c r="E23" t="s">
+        <v>498</v>
+      </c>
+      <c r="F23" t="s">
+        <v>499</v>
+      </c>
+      <c r="G23" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>501</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24" t="s">
+        <v>502</v>
+      </c>
+      <c r="D24" t="s">
+        <v>503</v>
+      </c>
+      <c r="E24" t="s">
+        <v>504</v>
+      </c>
+      <c r="F24" t="s">
+        <v>505</v>
+      </c>
+      <c r="G24" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>507</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25" t="s">
+        <v>508</v>
+      </c>
+      <c r="D25" t="s">
+        <v>509</v>
+      </c>
+      <c r="E25" t="s">
+        <v>510</v>
+      </c>
+      <c r="F25" t="s">
+        <v>511</v>
+      </c>
+      <c r="G25" t="s">
+        <v>512</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/files/Sample.xlsx
+++ b/files/Sample.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="574">
   <si>
     <t>Corn Cheese Balls recipe, How to make cheese corn balls, Veg Cheese balls</t>
   </si>
@@ -3343,6 +3343,424 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/buckwheat-dhoklas-5282r</t>
+  </si>
+  <si>
+    <t>baked methi mathri recipe | healthy crispy methi mathri | baked mathari |</t>
+  </si>
+  <si>
+    <t>For Baked Methi Mathri
+1 cup whole wheat flour (gehun ka atta)
+1/4 cup finely chopped fenugreek (methi)
+1/4 tsp turmeric powder (haldi)
+3/4 tsp chilli powder
+3/4 tsp coriander (dhania) powder
+2 tsp oil
+salt to taste
+whole wheat flour (gehun ka atta) for rolling</t>
+  </si>
+  <si>
+    <t>For baked methi mathri
+To make baked methi mathri, combine all the ingredients in a deep bowl and knead into a semi- stiff dough using enough water.
+Divide the dough into 18 equal portions.
+Roll out a portion of the dough into a 100 mm. (4”) diameter circle using a little whole wheat flour for rolling.
+Pinch the edges of the rolled mathri to form a design.
+Prick the mathri with a fork at regular intervals.
+Repeat steps 3 to 5 to make 8 more mathris.
+Bake them in a pre-heated oven at 180ºc (360ºf) for 15 minutes, turn them over and bake again for 10 minutes.
+Repeat steps 3 to 7 to roll and bake one more batch.
+Cool, serve or store the baked methi mathri in an air-tight container.</t>
+  </si>
+  <si>
+    <t>Energy 26 cal
+Protein 0.7 g
+Carbohydrates 4.2 g
+Fiber 0.1 g
+Fat 0.7 g
+Cholesterol 0 mg
+Sodium 1.5 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_baked_methi_mathri,_healthy_jar_snack-15400.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/baked-methi-mathri-healthy-jar-snack-42360r</t>
+  </si>
+  <si>
+    <t>halim ladoo recipe | alive laddu | alive che ladoo | Maharashtrian halim ladoo |</t>
+  </si>
+  <si>
+    <t>For Halim Ladoo
+3/4 cup garden cress seeds
+1 tbsp ghee
+1/2 cup roughly chopped jaggery (gur)
+1/4 cup semolina (rava / sooji)
+1 tbsp desiccated coconut
+1/4 cup coarsely powdered almonds (badam)</t>
+  </si>
+  <si>
+    <t>For halim ladoo
+To make halim ladoos, soak the garden cress seeds in ½ cup of water in a deep bowl for 3 hours. Do not drain the water.
+Heat the ghee in a deep non-stick pan, add the soaked garden cress seeds, jaggery and semolina, mix well and cook on a medium flame for 6 to 7 minutes or till the jaggery melts, while stirring continuously.
+Add the coconut and almonds and mix well.
+Transfer the mixture onto a plate and keep aside to cool slightly.
+Divide the mixture into 16 equal portions and shape each portion into a round ball.
+Serve the halim ladoos or store in an air-tight container.</t>
+  </si>
+  <si>
+    <t>Energy 87 cal
+Protein 2.8 g
+Carbohydrates 9.3 g
+Fiber 1 g
+Fat 4.4 g
+Cholesterol 0 mg
+Sodium 0.6 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_halim_ladoo,__halim_laddu-15016.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/halim-ladoo--halim-laddu-39650r</t>
+  </si>
+  <si>
+    <t>crispy rice balls recipe | veg rice balls with leftover rice | rice veg balls Indian starter | kids |</t>
+  </si>
+  <si>
+    <t>1 cup cooked rice
+1/2 cup grated carrot
+1/4 cup finely chopped onions
+1/4 cup chopped spinach (palak)
+1/2 cup rice flour (chawal ka atta)
+1 1/2 tsp ginger-green chilli paste
+1 tsp sugar
+salt to taste
+oil for deep-frying
+For Serving
+tomato ketchup</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients and ¼ cup of water in a deep bowl and mix till the mixture binds well.
+Divide the mixture into 20 equal portions and shape each portion into a ball.
+Heat the oil in a deep non-stick pan and deep-fry, a few balls at a time till they turn golden brown in colour from all the sides. Drain on an absorbent paper.
+Serve immediately with tomato ketchup.</t>
+  </si>
+  <si>
+    <t>Energy 48 cal
+Protein 0.4 g
+Carbohydrates 5.4 g
+Fiber 0.3 g
+Fat 2.8 g
+Cholesterol 0 mg
+Vitamin A 113.2 mcg
+Vitamin B1 0 mg
+Vitamin B2 0 mg
+Vitamin B3 0.2 mg
+Vitamin C 0.5 mg
+Folic Acid 1.8 mcg
+Calcium 3.7 mg
+Iron 0.1 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 1.3 mg
+Potassium 8.8 mg
+Zinc 0.1 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_crispy_rice_balls-12295.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/crispy-rice-balls-7591r</t>
+  </si>
+  <si>
+    <t>khandvi recipe| Gujarati khandvi | besan khandvi |</t>
+  </si>
+  <si>
+    <t>For Khandvi
+1 cup besan (bengal gram flour)
+1 cup curd (dahi)
+a pinch of asafoetida (hing)
+2 to 3 drops of lemon juice
+1/4 tsp turmeric powder (haldi)
+2 tsp ginger-green chilli paste
+salt to taste
+oil for greasing
+2 tsp oil
+1 tsp mustard seeds ( rai / sarson)
+1 tsp sesame seeds (til)
+1/4 tsp asafoetida (hing)
+For The Garnish
+2 tbsp freshly grated coconut
+2 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>For khandvi
+To make khandvi, grease 3 thalis (10” diameter each) lightly with oil on both the sides and keep aside.
+Combine the curds and 1½ cups of water in a deep bowl, mix well and keep aside.
+Combine the besan, curds-water mixture, asafoetida, lemon juice, turmeric powder, ginger-green chilli paste and salt in a deep non-stick pan and mix well using a whisk till no lumps remain to make a smooth mixture.
+Switch on the flame and cook on a slow flame for 9 minutes, while stirring continuously or till it thickens.
+Spread a spoonful of the batter on a greased thali, wait for a few seconds and try to roll it up. If it doesn’t roll then cook for 1 more minute and then check once more if it gets rolled perfectly.
+While it is still hot, pour little portions of the mixture on the insides of 3 greased thalis and spread the mixture in a circular motion into a thin layer using a vati.
+Turn all the 3 thalis and spread the remaining mixture on their back sides as in step 6.
+Allow them to cool for 5 to 10 minutes and roll them up tightly.
+Cut each khandvi roll into 6 equal pieces and keep aside.
+For the tempering, heat the oil in a small non-stick pan and add the mustard seeds.
+When the seeds crackle, add the sesame seeds, asafoetida and sauté on a medium flame for a few seconds.
+Pour the tempering over the khandvis.
+Garnish the khandvis with coconut and coriander and serve.</t>
+  </si>
+  <si>
+    <t>Energy 186 cal
+Protein 7.4 g
+Carbohydrates 17.6 g
+Fiber 3.9 g
+Fat 8.4 g
+Cholesterol 8 mg
+Sodium 27.8 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_khandvi,_gujarati_snack_recipe-15808.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/khandvi-gujarati-snack-recipe-557r</t>
+  </si>
+  <si>
+    <t>Whole Wheat Date Cookies ( Baby and Toddler Recipe), Baby Recipes | Toddler Recipes</t>
+  </si>
+  <si>
+    <t>For The Date Purée
+1/4 cup dates (khajur)
+For The Dough
+1/2 cup whole wheat flour (gehun ka atta)
+1/4 cup butter
+2 tbsp sugar</t>
+  </si>
+  <si>
+    <t>For the date purée
+Chop the dates into small pieces and add ½ cup of water.
+Bring to a boil in a non-stick pan and simmer for 10 to 12 minutes till the dates are fully mashed into a purée.
+Cool and keep aside.
+For the dough
+Combine the flour, butter and sugar using your fingertips till the mixture resembles bread crumbs.
+Add the cooled date purée and knead it into a dough.
+Cover with a plastic film and refrigerate for 15 minutes.
+Roll out into a sheet of 6 mm. (¼") thickness and cut out round cookies approx. 37 mm. (1½") in diameter using a cookie cutter.
+Re-roll the scraps of dough to make more cookies and place them on a greased baking tray.
+Bake in a pre-heated oven at 180°c (360°f) for 25 minutes or till the cookies are golden brown.
+Cool and store in an air-tight container.</t>
+  </si>
+  <si>
+    <t>Energy 64 cal
+Protein 0.7 g
+Carbohydrates 8.9 g
+Fiber 0.9 g
+Fat 2.9 g
+Cholesterol 8.8 mg
+Sodium 30.1 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_whole_wheat_date_cookies_(_baby_and_toddler_recipe)-7127.jpg?size=500X649</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/whole-wheat-date-cookies--baby-and-toddler-recipe-3076r</t>
+  </si>
+  <si>
+    <t>Lavash recipe</t>
+  </si>
+  <si>
+    <t>3/4 cup plain flour (maida)
+1/2 tsp dry yeast
+a pinch of sugar
+salt to taste
+Other Ingredients
+plain flour (maida) for rolling
+1 1/2 tsp black sesame seeds (kala til)
+olive oil for brushing</t>
+  </si>
+  <si>
+    <t>Combine the dry yeast and sugar with ¼ cup of warm water in a bowl, mix well and cover with a lid and keep aside for 5 minutes.
+Combine the plain flour, dry yeast-water mixture and salt in a deep bowl, mix well and knead into a soft dough without using any water.
+Cover with a lid and keep aside for 15 minutes.
+Divide the dough into 3 equal portions.
+Roll a portion into a 175 mm. (7”) diameter circle using a little plain flour for rolling and brush a little olive oil over it.
+Sprinkle ½ tsp of black sesame seeds evenly over it and cut it into 12 equal triangles.
+Arrange them on a greased baking tray and bake in a pre-heated oven at 180°c (360°f) for 16 to 18 minutes or till they turn golden brown in colour. Allow it to cool slightly.
+Repeat steps 5 to 7 to make 24 more lavash.
+Store in an air-tight container and use as required.</t>
+  </si>
+  <si>
+    <t>Energy 21 cal
+Protein 0.3 g
+Carbohydrates 2 g
+Fiber 0 g
+Fat 1.3 g
+Cholesterol 0 mg
+Sodium 0.3 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_lavash-8949.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/lavash-22702r</t>
+  </si>
+  <si>
+    <t>Masoor Dal with Spinach recipe, Moong Dal with Palak, Protein Rich recipe</t>
+  </si>
+  <si>
+    <t>For Masoor Dal With Spinach
+1 cup masoor (split red lentil) dal
+1 cup chopped spinach (palak)
+2 tsp oil
+1 tsp cumin seeds (jeera)
+1/2cup finely chopped onion
+1/2 tsp turmeric powder (haldi)
+2 tsp dried mango powder (amchur)
+1/2 cup finely chopped tomatoes
+salt to taste
+3/4 tsp chilli powder
+To Be Ground Into A Smooth Garlic-ginger-green Chilli Paste
+1 tbsp roughly chopped garlic (lehsun)
+1 tsp roughly ginger (adrak)
+1 tbsp roughly chopped green chillies
+For Serving With Masoor Dal With Spinach
+rotis</t>
+  </si>
+  <si>
+    <t>For masoor dal with spinach
+To make masoor dal with spinach, pour 1½ cups of water in a pressure cooker, add the masoor dal, mix well and pressure cook for 2 whistles.
+Allow the steam to escape before opening the lid. Keep aside.
+Heat the oil in a kadhai, add the cumin seeds, mix well and sauté on a medium flame for a few seconds.
+Add the onions and sauté on a medium flame for 2 to 3 minutes.
+Add the cooked masoor dal, spinach, turmeric powder, dry mango powder, prepared garlic- ginger-green chilli paste, tomatoes and salt, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Add 1 cup of water and chilli powder, mix well and cook on a medium flame for 3 to 4 minutes, while stirring occasionally.
+Serve masoor dal with spinach hot with rotis.</t>
+  </si>
+  <si>
+    <t>Energy 186 cal
+Protein 10.2 g
+Carbohydrates 24 g
+Fiber 4.9 g
+Fat 5.4 g
+Cholesterol 0 mg
+Sodium 15.3 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_masoor_dal_with_spinach,_protein_rich_recipes-14161.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/masoor-dal-with-spinach-protein-rich-recipes-33249r</t>
+  </si>
+  <si>
+    <t>oven baked pumpkin fries recipe | how to make pumpkin fries | healthy |</t>
+  </si>
+  <si>
+    <t>For Oven Baked Pumpkin Fries
+2 cups red pumpkin (bhopla/ kaddu) fingers
+1 1/2 tbsp olive oil
+1 tsp dry red chilli flakes (paprika)
+1/2 tsp sea salt (khada namak)</t>
+  </si>
+  <si>
+    <t>For oven baked pumpkin fries
+To make oven baked pumpkin fries, combine all the ingredients in a deep bowl and toss well.
+Place them on a lined baking tray and bake in a pre-heated oven at 200ºc (400ºf) for 15 minutes.
+Serve the oven baked pumpkin fries immediately.</t>
+  </si>
+  <si>
+    <t>Energy 128 cal
+Protein 1.6 g
+Carbohydrates 5.3 g
+Fiber 0.8 g
+Fat 11.1 g
+Cholesterol 0 mg
+Sodium 6.5 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_oven_baked_pumpkin_fries,_healthy_snack-13591.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/oven-baked-pumpkin-fries-healthy-snack-42327r</t>
+  </si>
+  <si>
+    <t>Cheese Croutons, Baked Cheese Croutons For Soups and Salads Recipes</t>
+  </si>
+  <si>
+    <t>4 bread slices
+To Be Mixed Into A Spread
+2 tbsp soft butter
+1/2 cup grated processed cheese</t>
+  </si>
+  <si>
+    <t>Divide the spread into 4 equal portions.
+Place the bread slices on a clean, dry surface, put a portion of the spread evenly on all the bread slices.
+Place the bread slices on a greased baking tray and bake in a pre-heated oven at 200°c (400°f) for 15 minutes or till they turn golden brown in colour.
+Cut each bread slice into 9 equal cubes.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 14 cal
+Protein 0.4 g
+Carbohydrates 1.2 g
+Fiber 0 g
+Fat 0.8 g
+Cholesterol 0 mg
+Vitamin A 24.4 mcg
+Vitamin B1 0 mg
+Vitamin B2 0 mg
+Vitamin B3 0 mg
+Vitamin C 0 mg
+Folic Acid 0 mcg
+Calcium 9 mg
+Iron 0 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 5.5 mg
+Potassium 0.2 mg
+Zinc 0 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_cheese_croutons_(_soups_and_salads_recipe_)-10512.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cheese-croutons-baked-cheese-croutons-for-soups-and-salads-recipes-33978r</t>
+  </si>
+  <si>
+    <t>Cheese Sticks recipe, Cheese Straw Baby Recipes | Toddler Recipes</t>
+  </si>
+  <si>
+    <t>1 cup whole wheat flour (gehun ka atta)
+5 tbsp butter
+4 tbsp grated processed cheese
+2 pinches of salt
+whole wheat flour (gehun ka atta) for rolling</t>
+  </si>
+  <si>
+    <t>Sieve the flour and add the salt.
+Rub the butter into the flour with your fingertips till the mixture resembles bread crumbs.
+Add the cheese and mix well.
+Add the water (approx. 1 tablespoon) and make a dough.
+Divide the dough into 2 equal portions.
+Roll out 1 portion of the dough on a lightly floured board to about 6 mm. (¼") thickness using a little flour for rolling.
+Cut into 50 mm. (2") long strips using a knife.
+Repeat steps 6 and 7 to make more sticks.
+Arrange the sticks on an ungreased baking tray and bake in a pre-heated oven at 200ºc (400°f) for 10 to 12 minutes.
+Cool completely and store in an air-tight container.</t>
+  </si>
+  <si>
+    <t>Energy 72 cal
+Protein 1.7 g
+Carbohydrates 6.9 g
+Fiber 1.1 g
+Fat 4.3 g
+Cholesterol 13.3 mg
+Sodium 69.3 mg</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_cheese_sticks-10110.jpg?size=696X905</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cheese-sticks-3102r</t>
+  </si>
+  <si>
+    <t>https://cdn.tarladalal.com/members/9306/big/big_almond_bhakri,_gluten_free_almond_bhakri-12076.jpg?size=696X905</t>
   </si>
 </sst>
 </file>
@@ -3379,8 +3797,1157 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="701">
+  <cellXfs count="1084">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
     </xf>
@@ -5487,7 +7054,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:G3"/>
+  <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5533,6 +7100,216 @@
       </c>
       <c r="G3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>513</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" t="s">
+        <v>514</v>
+      </c>
+      <c r="D4" t="s">
+        <v>515</v>
+      </c>
+      <c r="E4" t="s">
+        <v>516</v>
+      </c>
+      <c r="F4" t="s">
+        <v>517</v>
+      </c>
+      <c r="G4" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5" t="s">
+        <v>520</v>
+      </c>
+      <c r="D5" t="s">
+        <v>521</v>
+      </c>
+      <c r="E5" t="s">
+        <v>522</v>
+      </c>
+      <c r="F5" t="s">
+        <v>523</v>
+      </c>
+      <c r="G5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6" t="s">
+        <v>526</v>
+      </c>
+      <c r="D6" t="s">
+        <v>527</v>
+      </c>
+      <c r="E6" t="s">
+        <v>528</v>
+      </c>
+      <c r="F6" t="s">
+        <v>529</v>
+      </c>
+      <c r="G6" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>531</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7" t="s">
+        <v>532</v>
+      </c>
+      <c r="D7" t="s">
+        <v>533</v>
+      </c>
+      <c r="E7" t="s">
+        <v>534</v>
+      </c>
+      <c r="F7" t="s">
+        <v>535</v>
+      </c>
+      <c r="G7" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>537</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8" t="s">
+        <v>538</v>
+      </c>
+      <c r="D8" t="s">
+        <v>539</v>
+      </c>
+      <c r="E8" t="s">
+        <v>540</v>
+      </c>
+      <c r="F8" t="s">
+        <v>541</v>
+      </c>
+      <c r="G8" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>543</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9" t="s">
+        <v>544</v>
+      </c>
+      <c r="D9" t="s">
+        <v>545</v>
+      </c>
+      <c r="E9" t="s">
+        <v>546</v>
+      </c>
+      <c r="F9" t="s">
+        <v>547</v>
+      </c>
+      <c r="G9" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>549</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10" t="s">
+        <v>550</v>
+      </c>
+      <c r="D10" t="s">
+        <v>551</v>
+      </c>
+      <c r="E10" t="s">
+        <v>552</v>
+      </c>
+      <c r="F10" t="s">
+        <v>553</v>
+      </c>
+      <c r="G10" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>555</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11" t="s">
+        <v>556</v>
+      </c>
+      <c r="D11" t="s">
+        <v>557</v>
+      </c>
+      <c r="E11" t="s">
+        <v>558</v>
+      </c>
+      <c r="F11" t="s">
+        <v>559</v>
+      </c>
+      <c r="G11" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>561</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12" t="s">
+        <v>562</v>
+      </c>
+      <c r="D12" t="s">
+        <v>563</v>
+      </c>
+      <c r="E12" t="s">
+        <v>564</v>
+      </c>
+      <c r="F12" t="s">
+        <v>565</v>
+      </c>
+      <c r="G12" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>567</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13" t="s">
+        <v>568</v>
+      </c>
+      <c r="D13" t="s">
+        <v>569</v>
+      </c>
+      <c r="E13" t="s">
+        <v>570</v>
+      </c>
+      <c r="F13" t="s">
+        <v>571</v>
+      </c>
+      <c r="G13" t="s">
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -6190,7 +7967,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>492</v>
       </c>
       <c r="C7" t="s">
         <v>57</v>
@@ -6382,7 +8159,7 @@
         <v>103</v>
       </c>
       <c r="F16" t="s">
-        <v>104</v>
+        <v>573</v>
       </c>
       <c r="G16" t="s">
         <v>105</v>
